--- a/data-transfer/transfer/data/calphi/student.xlsx
+++ b/data-transfer/transfer/data/calphi/student.xlsx
@@ -608,9 +608,6 @@
     <t>Raina Mandayam</t>
   </si>
   <si>
-    <t>Graduate</t>
-  </si>
-  <si>
     <t>650-207-3612</t>
   </si>
   <si>
@@ -1329,6 +1326,9 @@
   </si>
   <si>
     <t>9/1/2016</t>
+  </si>
+  <si>
+    <t>Master 3</t>
   </si>
 </sst>
 </file>
@@ -1830,9 +1830,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q44" sqref="Q44"/>
+      <selection pane="topRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1937,7 +1937,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>25</v>
@@ -1964,7 +1964,7 @@
         <v>23</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R2" s="16">
         <v>0.39583333333333331</v>
@@ -1973,7 +1973,7 @@
         <v>31</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1991,7 +1991,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>34</v>
@@ -2018,7 +2018,7 @@
         <v>37</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R3" s="16">
         <v>0.40625</v>
@@ -2027,7 +2027,7 @@
         <v>31</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2045,7 +2045,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>40</v>
@@ -2072,7 +2072,7 @@
         <v>37</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R4" s="16">
         <v>0.40625</v>
@@ -2081,7 +2081,7 @@
         <v>31</v>
       </c>
       <c r="U4" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W4" s="11" t="str">
         <f t="shared" ref="W4:W67" si="0">CONCATENATE(L4,M4,N4,O4,Q4)</f>
@@ -2107,7 +2107,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>44</v>
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R5" s="16">
         <v>0.40625</v>
@@ -2143,7 +2143,7 @@
         <v>31</v>
       </c>
       <c r="U5" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2169,7 +2169,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>49</v>
@@ -2196,7 +2196,7 @@
         <v>47</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R6" s="16">
         <v>0.40625</v>
@@ -2205,7 +2205,7 @@
         <v>31</v>
       </c>
       <c r="U6" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="W6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2231,7 +2231,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>49</v>
@@ -2258,7 +2258,7 @@
         <v>47</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R7" s="16">
         <v>0.40625</v>
@@ -2267,7 +2267,7 @@
         <v>31</v>
       </c>
       <c r="U7" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="W7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2293,7 +2293,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>54</v>
@@ -2320,7 +2320,7 @@
         <v>47</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R8" s="16">
         <v>0.40625</v>
@@ -2329,7 +2329,7 @@
         <v>31</v>
       </c>
       <c r="U8" s="35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2355,7 +2355,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>34</v>
@@ -2382,7 +2382,7 @@
         <v>59</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R9" s="16">
         <v>0.41666666666666669</v>
@@ -2391,7 +2391,7 @@
         <v>31</v>
       </c>
       <c r="U9" s="35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2417,7 +2417,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>40</v>
@@ -2444,7 +2444,7 @@
         <v>59</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R10" s="16">
         <v>0.41666666666666669</v>
@@ -2453,7 +2453,7 @@
         <v>31</v>
       </c>
       <c r="U10" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2479,7 +2479,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>63</v>
@@ -2506,7 +2506,7 @@
         <v>59</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R11" s="16">
         <v>0.41666666666666669</v>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2542,7 +2542,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>67</v>
@@ -2569,7 +2569,7 @@
         <v>69</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R12" s="16">
         <v>0.41666666666666669</v>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="W12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2605,7 +2605,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>72</v>
@@ -2632,7 +2632,7 @@
         <v>71</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R13" s="16">
         <v>0.4375</v>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2668,7 +2668,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G14" s="14">
         <v>5105790135</v>
@@ -2695,7 +2695,7 @@
         <v>71</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R14" s="16">
         <v>0.4375</v>
@@ -2704,7 +2704,7 @@
         <v>31</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2730,7 +2730,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>77</v>
@@ -2757,7 +2757,7 @@
         <v>37</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R15" s="16">
         <v>0.4375</v>
@@ -2766,7 +2766,7 @@
         <v>31</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W15" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2792,7 +2792,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>72</v>
@@ -2819,7 +2819,7 @@
         <v>80</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R16" s="16">
         <v>0.4375</v>
@@ -2828,7 +2828,7 @@
         <v>31</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W16" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2854,7 +2854,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G17" s="14">
         <v>5105790135</v>
@@ -2881,7 +2881,7 @@
         <v>23</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R17" s="16">
         <v>0.4375</v>
@@ -2890,7 +2890,7 @@
         <v>31</v>
       </c>
       <c r="U17" s="35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W17" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2912,7 +2912,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G18" s="14">
         <v>5105790135</v>
@@ -2939,7 +2939,7 @@
         <v>23</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R18" s="16">
         <v>0.4375</v>
@@ -2948,7 +2948,7 @@
         <v>31</v>
       </c>
       <c r="U18" s="35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2974,7 +2974,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G19" s="14">
         <v>4153779590</v>
@@ -3001,7 +3001,7 @@
         <v>23</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R19" s="16">
         <v>0.45833333333333331</v>
@@ -3010,7 +3010,7 @@
         <v>31</v>
       </c>
       <c r="U19" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3036,7 +3036,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G20" s="14">
         <v>5104291608</v>
@@ -3063,7 +3063,7 @@
         <v>71</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R20" s="16">
         <v>0.46875</v>
@@ -3072,7 +3072,7 @@
         <v>31</v>
       </c>
       <c r="U20" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W20" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3098,7 +3098,7 @@
         <v>39</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G21" s="14">
         <v>5104291608</v>
@@ -3125,7 +3125,7 @@
         <v>37</v>
       </c>
       <c r="Q21" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R21" s="16">
         <v>0.46875</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="T21" s="24"/>
       <c r="U21" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W21" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3161,7 +3161,7 @@
         <v>39</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>90</v>
@@ -3188,7 +3188,7 @@
         <v>80</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R22" s="16">
         <v>0.46875</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="T22" s="22"/>
       <c r="U22" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="W22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3224,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>94</v>
@@ -3251,7 +3251,7 @@
         <v>59</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R23" s="16">
         <v>0.45833333333333331</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="T23" s="22"/>
       <c r="U23" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3287,7 +3287,7 @@
         <v>39</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>98</v>
@@ -3314,7 +3314,7 @@
         <v>59</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R24" s="16">
         <v>0.45833333333333331</v>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="T24" s="22"/>
       <c r="U24" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3350,7 +3350,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>102</v>
@@ -3377,7 +3377,7 @@
         <v>104</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R25" s="16">
         <v>0.45833333333333331</v>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="T25" s="22"/>
       <c r="U25" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="W25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3413,7 +3413,7 @@
         <v>39</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>107</v>
@@ -3440,7 +3440,7 @@
         <v>104</v>
       </c>
       <c r="Q26" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R26" s="16">
         <v>0.45833333333333331</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="T26" s="22"/>
       <c r="U26" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="W26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3476,7 +3476,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G27" s="14">
         <v>5104888100</v>
@@ -3503,7 +3503,7 @@
         <v>112</v>
       </c>
       <c r="Q27" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R27" s="16">
         <v>0.47916666666666669</v>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="T27" s="22"/>
       <c r="U27" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="W27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3539,7 +3539,7 @@
         <v>39</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G28" s="14">
         <v>5104888100</v>
@@ -3566,7 +3566,7 @@
         <v>112</v>
       </c>
       <c r="Q28" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R28" s="16">
         <v>0.47916666666666669</v>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="T28" s="22"/>
       <c r="U28" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="W28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3602,7 +3602,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>115</v>
@@ -3629,7 +3629,7 @@
         <v>37</v>
       </c>
       <c r="Q29" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R29" s="16">
         <v>0.5</v>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="T29" s="22"/>
       <c r="U29" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="W29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3665,7 +3665,7 @@
         <v>24</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>115</v>
@@ -3692,7 +3692,7 @@
         <v>59</v>
       </c>
       <c r="Q30" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R30" s="16">
         <v>0.5</v>
@@ -3701,7 +3701,7 @@
         <v>31</v>
       </c>
       <c r="U30" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="W30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3727,7 +3727,7 @@
         <v>39</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>120</v>
@@ -3754,7 +3754,7 @@
         <v>23</v>
       </c>
       <c r="Q31" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R31" s="16">
         <v>0.60416666666666663</v>
@@ -3763,7 +3763,7 @@
         <v>31</v>
       </c>
       <c r="U31" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W31" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3789,7 +3789,7 @@
         <v>24</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>120</v>
@@ -3816,7 +3816,7 @@
         <v>23</v>
       </c>
       <c r="Q32" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R32" s="16">
         <v>0.60416666666666663</v>
@@ -3825,7 +3825,7 @@
         <v>31</v>
       </c>
       <c r="U32" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W32" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3851,7 +3851,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>120</v>
@@ -3878,7 +3878,7 @@
         <v>23</v>
       </c>
       <c r="Q33" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R33" s="16">
         <v>0.60416666666666663</v>
@@ -3887,7 +3887,7 @@
         <v>31</v>
       </c>
       <c r="U33" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W33" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3913,7 +3913,7 @@
         <v>24</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>125</v>
@@ -3940,7 +3940,7 @@
         <v>112</v>
       </c>
       <c r="Q34" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R34" s="16">
         <v>0.60416666666666663</v>
@@ -3949,7 +3949,7 @@
         <v>31</v>
       </c>
       <c r="U34" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W34" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3975,7 +3975,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G35" s="14">
         <v>5103326113</v>
@@ -4002,7 +4002,7 @@
         <v>112</v>
       </c>
       <c r="Q35" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R35" s="16">
         <v>0.60416666666666663</v>
@@ -4011,7 +4011,7 @@
         <v>31</v>
       </c>
       <c r="U35" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="W35" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4037,7 +4037,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>131</v>
@@ -4064,7 +4064,7 @@
         <v>112</v>
       </c>
       <c r="Q36" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R36" s="16">
         <v>0.60416666666666663</v>
@@ -4073,7 +4073,7 @@
         <v>31</v>
       </c>
       <c r="U36" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W36" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4099,7 +4099,7 @@
         <v>24</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G37" s="14">
         <v>4085987667</v>
@@ -4126,7 +4126,7 @@
         <v>23</v>
       </c>
       <c r="Q37" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R37" s="16">
         <v>0.625</v>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="T37" s="22"/>
       <c r="U37" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="W37" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4162,7 +4162,7 @@
         <v>39</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G38" s="14">
         <v>4085987366</v>
@@ -4189,7 +4189,7 @@
         <v>112</v>
       </c>
       <c r="Q38" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R38" s="16">
         <v>0.625</v>
@@ -4198,7 +4198,7 @@
         <v>31</v>
       </c>
       <c r="U38" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="W38" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4224,7 +4224,7 @@
         <v>39</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>125</v>
@@ -4251,7 +4251,7 @@
         <v>80</v>
       </c>
       <c r="Q39" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R39" s="16">
         <v>0.61458333333333337</v>
@@ -4260,7 +4260,7 @@
         <v>31</v>
       </c>
       <c r="U39" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W39" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4286,7 +4286,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>138</v>
@@ -4313,7 +4313,7 @@
         <v>80</v>
       </c>
       <c r="Q40" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R40" s="16">
         <v>0.61458333333333337</v>
@@ -4322,7 +4322,7 @@
         <v>31</v>
       </c>
       <c r="U40" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="W40" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4348,7 +4348,7 @@
         <v>24</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G41" s="14">
         <v>6502089689</v>
@@ -4375,7 +4375,7 @@
         <v>47</v>
       </c>
       <c r="Q41" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R41" s="16">
         <v>0.61458333333333337</v>
@@ -4384,7 +4384,7 @@
         <v>31</v>
       </c>
       <c r="U41" s="35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="W41" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4410,7 +4410,7 @@
         <v>39</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>143</v>
@@ -4437,7 +4437,7 @@
         <v>47</v>
       </c>
       <c r="Q42" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R42" s="16">
         <v>0.61458333333333337</v>
@@ -4446,7 +4446,7 @@
         <v>31</v>
       </c>
       <c r="U42" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="W42" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4472,7 +4472,7 @@
         <v>39</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>146</v>
@@ -4499,7 +4499,7 @@
         <v>59</v>
       </c>
       <c r="Q43" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R43" s="16">
         <v>0.625</v>
@@ -4508,7 +4508,7 @@
         <v>31</v>
       </c>
       <c r="U43" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="W43" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4534,7 +4534,7 @@
         <v>24</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>146</v>
@@ -4561,7 +4561,7 @@
         <v>59</v>
       </c>
       <c r="Q44" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R44" s="16">
         <v>0.625</v>
@@ -4570,7 +4570,7 @@
         <v>31</v>
       </c>
       <c r="U44" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="W44" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4596,7 +4596,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>150</v>
@@ -4623,7 +4623,7 @@
         <v>59</v>
       </c>
       <c r="Q45" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R45" s="16">
         <v>0.625</v>
@@ -4632,7 +4632,7 @@
         <v>31</v>
       </c>
       <c r="U45" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="W45" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4658,7 +4658,7 @@
         <v>39</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>153</v>
@@ -4685,7 +4685,7 @@
         <v>59</v>
       </c>
       <c r="Q46" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R46" s="16">
         <v>0.625</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="T46" s="22"/>
       <c r="U46" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W46" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4721,7 +4721,7 @@
         <v>24</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>155</v>
@@ -4746,7 +4746,7 @@
         <v>71</v>
       </c>
       <c r="Q47" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R47" s="16">
         <v>0.64583333333333337</v>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="T47" s="22"/>
       <c r="U47" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W47" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4782,7 +4782,7 @@
         <v>39</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>157</v>
@@ -4809,7 +4809,7 @@
         <v>71</v>
       </c>
       <c r="Q48" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R48" s="16">
         <v>0.64583333333333337</v>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="T48" s="22"/>
       <c r="U48" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W48" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4845,7 +4845,7 @@
         <v>39</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>157</v>
@@ -4872,7 +4872,7 @@
         <v>71</v>
       </c>
       <c r="Q49" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R49" s="16">
         <v>0.64583333333333337</v>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="T49" s="22"/>
       <c r="U49" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W49" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4908,7 +4908,7 @@
         <v>39</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>162</v>
@@ -4935,7 +4935,7 @@
         <v>37</v>
       </c>
       <c r="Q50" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R50" s="16">
         <v>0.64583333333333337</v>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="T50" s="22"/>
       <c r="U50" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W50" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4971,7 +4971,7 @@
         <v>24</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>162</v>
@@ -4998,7 +4998,7 @@
         <v>37</v>
       </c>
       <c r="Q51" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R51" s="16">
         <v>0.64583333333333337</v>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="T51" s="22"/>
       <c r="U51" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W51" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5034,7 +5034,7 @@
         <v>39</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>166</v>
@@ -5061,7 +5061,7 @@
         <v>47</v>
       </c>
       <c r="Q52" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R52" s="16">
         <v>0.64583333333333337</v>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="T52" s="22"/>
       <c r="U52" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="W52" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5097,7 +5097,7 @@
         <v>39</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>131</v>
@@ -5124,7 +5124,7 @@
         <v>80</v>
       </c>
       <c r="Q53" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R53" s="16">
         <v>0.64583333333333337</v>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="T53" s="22"/>
       <c r="U53" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="W53" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5160,7 +5160,7 @@
         <v>24</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>170</v>
@@ -5187,7 +5187,7 @@
         <v>112</v>
       </c>
       <c r="Q54" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R54" s="16">
         <v>0.64583333333333337</v>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="T54" s="22"/>
       <c r="U54" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="W54" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5223,7 +5223,7 @@
         <v>39</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>174</v>
@@ -5250,7 +5250,7 @@
         <v>71</v>
       </c>
       <c r="Q55" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R55" s="16">
         <v>0.67708333333333337</v>
@@ -5259,7 +5259,7 @@
         <v>31</v>
       </c>
       <c r="U55" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="W55" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5285,7 +5285,7 @@
         <v>24</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>177</v>
@@ -5312,7 +5312,7 @@
         <v>71</v>
       </c>
       <c r="Q56" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R56" s="16">
         <v>0.67708333333333337</v>
@@ -5321,7 +5321,7 @@
         <v>31</v>
       </c>
       <c r="U56" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="W56" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5347,7 +5347,7 @@
         <v>39</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>180</v>
@@ -5374,7 +5374,7 @@
         <v>37</v>
       </c>
       <c r="Q57" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R57" s="16">
         <v>0.67708333333333337</v>
@@ -5383,7 +5383,7 @@
         <v>31</v>
       </c>
       <c r="U57" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W57" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5409,7 +5409,7 @@
         <v>24</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>183</v>
@@ -5436,7 +5436,7 @@
         <v>37</v>
       </c>
       <c r="Q58" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R58" s="16">
         <v>0.67708333333333337</v>
@@ -5445,7 +5445,7 @@
         <v>31</v>
       </c>
       <c r="U58" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W58" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5471,7 +5471,7 @@
         <v>39</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>186</v>
@@ -5498,7 +5498,7 @@
         <v>37</v>
       </c>
       <c r="Q59" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R59" s="16">
         <v>0.67708333333333337</v>
@@ -5507,7 +5507,7 @@
         <v>31</v>
       </c>
       <c r="U59" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="W59" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5533,7 +5533,7 @@
         <v>24</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>189</v>
@@ -5560,7 +5560,7 @@
         <v>59</v>
       </c>
       <c r="Q60" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R60" s="16">
         <v>0.66666666666666663</v>
@@ -5569,7 +5569,7 @@
         <v>31</v>
       </c>
       <c r="U60" s="35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="W60" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5589,21 +5589,21 @@
         <v>42569</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>192</v>
+        <v>432</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K61" s="14"/>
       <c r="L61" s="11" t="s">
@@ -5622,7 +5622,7 @@
         <v>104</v>
       </c>
       <c r="Q61" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R61" s="16">
         <v>0.66666666666666663</v>
@@ -5631,7 +5631,7 @@
         <v>31</v>
       </c>
       <c r="U61" s="35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W61" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5645,27 +5645,27 @@
     <row r="62" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C62" s="12">
         <v>42569</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>192</v>
+        <v>432</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K62" s="14"/>
       <c r="L62" s="11" t="s">
@@ -5684,7 +5684,7 @@
         <v>104</v>
       </c>
       <c r="Q62" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R62" s="16">
         <v>0.66666666666666663</v>
@@ -5693,7 +5693,7 @@
         <v>31</v>
       </c>
       <c r="U62" s="35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W62" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5707,27 +5707,27 @@
     <row r="63" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63" s="12">
         <v>42569</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>192</v>
+        <v>432</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K63" s="14"/>
       <c r="L63" s="11" t="s">
@@ -5746,7 +5746,7 @@
         <v>104</v>
       </c>
       <c r="Q63" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R63" s="16">
         <v>0.66666666666666663</v>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="T63" s="22"/>
       <c r="U63" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W63" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5770,7 +5770,7 @@
     <row r="64" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C64" s="12">
         <v>42569</v>
@@ -5782,15 +5782,15 @@
         <v>24</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K64" s="14"/>
       <c r="L64" s="11" t="s">
@@ -5809,7 +5809,7 @@
         <v>23</v>
       </c>
       <c r="Q64" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R64" s="16">
         <v>0.6875</v>
@@ -5818,7 +5818,7 @@
         <v>31</v>
       </c>
       <c r="U64" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W64" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5832,7 +5832,7 @@
     <row r="65" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C65" s="12">
         <v>42569</v>
@@ -5844,15 +5844,15 @@
         <v>39</v>
       </c>
       <c r="F65" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K65" s="14"/>
       <c r="L65" s="11" t="s">
@@ -5871,7 +5871,7 @@
         <v>112</v>
       </c>
       <c r="Q65" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R65" s="16">
         <v>0.6875</v>
@@ -5880,7 +5880,7 @@
         <v>31</v>
       </c>
       <c r="U65" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="W65" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5894,7 +5894,7 @@
     <row r="66" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C66" s="12">
         <v>42569</v>
@@ -5906,15 +5906,15 @@
         <v>39</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K66" s="14"/>
       <c r="L66" s="11" t="s">
@@ -5933,7 +5933,7 @@
         <v>112</v>
       </c>
       <c r="Q66" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R66" s="16">
         <v>0.6875</v>
@@ -5942,7 +5942,7 @@
         <v>31</v>
       </c>
       <c r="U66" s="35" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="W66" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5956,7 +5956,7 @@
     <row r="67" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C67" s="12">
         <v>42569</v>
@@ -5968,15 +5968,15 @@
         <v>24</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K67" s="14"/>
       <c r="L67" s="11" t="s">
@@ -5995,7 +5995,7 @@
         <v>112</v>
       </c>
       <c r="Q67" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R67" s="16">
         <v>0.6875</v>
@@ -6004,7 +6004,7 @@
         <v>31</v>
       </c>
       <c r="U67" s="35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="W67" s="11" t="str">
         <f t="shared" si="0"/>
@@ -6018,7 +6018,7 @@
     <row r="68" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C68" s="12">
         <v>42569</v>
@@ -6030,7 +6030,7 @@
         <v>39</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
@@ -6053,7 +6053,7 @@
         <v>112</v>
       </c>
       <c r="Q68" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R68" s="16">
         <v>0.6875</v>
@@ -6062,7 +6062,7 @@
         <v>31</v>
       </c>
       <c r="U68" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W68" s="11" t="str">
         <f t="shared" ref="W68:W131" si="1">CONCATENATE(L68,M68,N68,O68,Q68)</f>
@@ -6076,7 +6076,7 @@
     <row r="69" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C69" s="12">
         <v>42569</v>
@@ -6088,15 +6088,15 @@
         <v>39</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K69" s="14"/>
       <c r="L69" s="11" t="s">
@@ -6106,7 +6106,7 @@
         <v>28</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O69" s="11" t="s">
         <v>30</v>
@@ -6115,7 +6115,7 @@
         <v>23</v>
       </c>
       <c r="Q69" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R69" s="16">
         <v>0.70833333333333337</v>
@@ -6124,7 +6124,7 @@
         <v>31</v>
       </c>
       <c r="U69" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W69" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6138,7 +6138,7 @@
     <row r="70" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C70" s="12">
         <v>42569</v>
@@ -6150,15 +6150,15 @@
         <v>24</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K70" s="14"/>
       <c r="L70" s="11" t="s">
@@ -6168,7 +6168,7 @@
         <v>28</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O70" s="11" t="s">
         <v>30</v>
@@ -6177,7 +6177,7 @@
         <v>23</v>
       </c>
       <c r="Q70" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R70" s="16">
         <v>0.70833333333333337</v>
@@ -6186,7 +6186,7 @@
         <v>31</v>
       </c>
       <c r="U70" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W70" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6200,7 +6200,7 @@
     <row r="71" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C71" s="12">
         <v>42569</v>
@@ -6212,15 +6212,15 @@
         <v>39</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K71" s="14"/>
       <c r="L71" s="11" t="s">
@@ -6230,7 +6230,7 @@
         <v>28</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O71" s="11" t="s">
         <v>30</v>
@@ -6239,7 +6239,7 @@
         <v>112</v>
       </c>
       <c r="Q71" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R71" s="16">
         <v>0.70833333333333337</v>
@@ -6248,7 +6248,7 @@
         <v>31</v>
       </c>
       <c r="U71" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W71" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6262,7 +6262,7 @@
     <row r="72" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C72" s="12">
         <v>42569</v>
@@ -6274,15 +6274,15 @@
         <v>39</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K72" s="14"/>
       <c r="L72" s="11" t="s">
@@ -6301,7 +6301,7 @@
         <v>71</v>
       </c>
       <c r="Q72" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R72" s="16">
         <v>0.70833333333333337</v>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="T72" s="22"/>
       <c r="U72" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="W72" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6325,7 +6325,7 @@
     <row r="73" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C73" s="12">
         <v>42569</v>
@@ -6337,15 +6337,15 @@
         <v>24</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K73" s="14"/>
       <c r="L73" s="11" t="s">
@@ -6364,7 +6364,7 @@
         <v>71</v>
       </c>
       <c r="Q73" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R73" s="16">
         <v>0.70833333333333337</v>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="T73" s="22"/>
       <c r="U73" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W73" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6388,7 +6388,7 @@
     <row r="74" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C74" s="12">
         <v>42569</v>
@@ -6400,15 +6400,15 @@
         <v>24</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K74" s="14"/>
       <c r="L74" s="11" t="s">
@@ -6427,7 +6427,7 @@
         <v>37</v>
       </c>
       <c r="Q74" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R74" s="16">
         <v>0.70833333333333337</v>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="T74" s="22"/>
       <c r="U74" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W74" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6451,7 +6451,7 @@
     <row r="75" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
       <c r="B75" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C75" s="12">
         <v>42569</v>
@@ -6463,15 +6463,15 @@
         <v>24</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K75" s="14"/>
       <c r="L75" s="11" t="s">
@@ -6490,7 +6490,7 @@
         <v>37</v>
       </c>
       <c r="Q75" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R75" s="16">
         <v>0.70833333333333337</v>
@@ -6499,7 +6499,7 @@
         <v>31</v>
       </c>
       <c r="U75" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W75" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6525,7 +6525,7 @@
         <v>39</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>77</v>
@@ -6552,7 +6552,7 @@
         <v>37</v>
       </c>
       <c r="Q76" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R76" s="16">
         <v>0.70833333333333337</v>
@@ -6561,7 +6561,7 @@
         <v>31</v>
       </c>
       <c r="U76" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W76" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6575,7 +6575,7 @@
     <row r="77" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="12">
         <v>42569</v>
@@ -6587,15 +6587,15 @@
         <v>24</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K77" s="14"/>
       <c r="L77" s="11" t="s">
@@ -6614,7 +6614,7 @@
         <v>80</v>
       </c>
       <c r="Q77" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R77" s="16">
         <v>0.70833333333333337</v>
@@ -6623,7 +6623,7 @@
         <v>31</v>
       </c>
       <c r="U77" s="35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="W77" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6637,7 +6637,7 @@
     <row r="78" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
       <c r="B78" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C78" s="12">
         <v>42569</v>
@@ -6649,15 +6649,15 @@
         <v>39</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K78" s="21"/>
       <c r="L78" s="11" t="s">
@@ -6676,7 +6676,7 @@
         <v>80</v>
       </c>
       <c r="Q78" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R78" s="16">
         <v>0.70833333333333337</v>
@@ -6685,7 +6685,7 @@
         <v>31</v>
       </c>
       <c r="U78" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W78" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6699,7 +6699,7 @@
     <row r="79" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C79" s="12">
         <v>42569</v>
@@ -6711,15 +6711,15 @@
         <v>24</v>
       </c>
       <c r="F79" s="33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K79" s="21"/>
       <c r="L79" s="11" t="s">
@@ -6738,7 +6738,7 @@
         <v>47</v>
       </c>
       <c r="Q79" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R79" s="16">
         <v>0.70833333333333337</v>
@@ -6747,7 +6747,7 @@
         <v>31</v>
       </c>
       <c r="U79" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W79" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6761,7 +6761,7 @@
     <row r="80" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C80" s="12">
         <v>42569</v>
@@ -6773,15 +6773,15 @@
         <v>24</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K80" s="21"/>
       <c r="L80" s="11" t="s">
@@ -6800,7 +6800,7 @@
         <v>47</v>
       </c>
       <c r="Q80" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R80" s="16">
         <v>0.70833333333333337</v>
@@ -6809,7 +6809,7 @@
         <v>31</v>
       </c>
       <c r="U80" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W80" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6823,7 +6823,7 @@
     <row r="81" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
       <c r="B81" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="12">
         <v>42569</v>
@@ -6835,15 +6835,15 @@
         <v>24</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K81" s="18"/>
       <c r="L81" s="11" t="s">
@@ -6862,7 +6862,7 @@
         <v>47</v>
       </c>
       <c r="Q81" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R81" s="16">
         <v>0.70833333333333337</v>
@@ -6871,7 +6871,7 @@
         <v>31</v>
       </c>
       <c r="U81" s="35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W81" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6885,27 +6885,27 @@
     <row r="82" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C82" s="12">
         <v>42569</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K82" s="21"/>
       <c r="L82" s="11" t="s">
@@ -6924,7 +6924,7 @@
         <v>59</v>
       </c>
       <c r="Q82" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R82" s="16">
         <v>0.625</v>
@@ -6933,7 +6933,7 @@
         <v>31</v>
       </c>
       <c r="U82" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="W82" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6947,7 +6947,7 @@
     <row r="83" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C83" s="12">
         <v>42569</v>
@@ -6959,15 +6959,15 @@
         <v>39</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K83" s="14"/>
       <c r="L83" s="11" t="s">
@@ -6986,7 +6986,7 @@
         <v>59</v>
       </c>
       <c r="Q83" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R83" s="16">
         <v>0.625</v>
@@ -6995,7 +6995,7 @@
         <v>31</v>
       </c>
       <c r="U83" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W83" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7009,7 +7009,7 @@
     <row r="84" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C84" s="12">
         <v>42569</v>
@@ -7021,15 +7021,15 @@
         <v>24</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K84" s="14"/>
       <c r="L84" s="11" t="s">
@@ -7048,7 +7048,7 @@
         <v>59</v>
       </c>
       <c r="Q84" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R84" s="16">
         <v>0.625</v>
@@ -7057,7 +7057,7 @@
         <v>31</v>
       </c>
       <c r="U84" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="W84" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7071,7 +7071,7 @@
     <row r="85" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C85" s="12">
         <v>42569</v>
@@ -7083,15 +7083,15 @@
         <v>24</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K85" s="14"/>
       <c r="L85" s="11" t="s">
@@ -7110,7 +7110,7 @@
         <v>59</v>
       </c>
       <c r="Q85" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R85" s="16">
         <v>0.625</v>
@@ -7119,7 +7119,7 @@
         <v>31</v>
       </c>
       <c r="U85" s="35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W85" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7133,7 +7133,7 @@
     <row r="86" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C86" s="12">
         <v>42569</v>
@@ -7145,15 +7145,15 @@
         <v>39</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K86" s="21"/>
       <c r="L86" s="11" t="s">
@@ -7172,7 +7172,7 @@
         <v>59</v>
       </c>
       <c r="Q86" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R86" s="16">
         <v>0.625</v>
@@ -7181,7 +7181,7 @@
         <v>31</v>
       </c>
       <c r="U86" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="W86" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7195,7 +7195,7 @@
     <row r="87" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C87" s="12">
         <v>42569</v>
@@ -7204,15 +7204,15 @@
         <v>57</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K87" s="14"/>
       <c r="L87" s="11" t="s">
@@ -7231,7 +7231,7 @@
         <v>59</v>
       </c>
       <c r="Q87" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R87" s="16">
         <v>0.625</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="T87" s="22"/>
       <c r="U87" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W87" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7255,7 +7255,7 @@
     <row r="88" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C88" s="12">
         <v>42569</v>
@@ -7267,15 +7267,15 @@
         <v>39</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K88" s="14"/>
       <c r="L88" s="11" t="s">
@@ -7294,7 +7294,7 @@
         <v>59</v>
       </c>
       <c r="Q88" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R88" s="16">
         <v>0.625</v>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="T88" s="22"/>
       <c r="U88" s="36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W88" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7318,7 +7318,7 @@
     <row r="89" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C89" s="12">
         <v>42569</v>
@@ -7330,15 +7330,15 @@
         <v>39</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K89" s="14"/>
       <c r="L89" s="11" t="s">
@@ -7357,7 +7357,7 @@
         <v>59</v>
       </c>
       <c r="Q89" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R89" s="16">
         <v>0.625</v>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="T89" s="22"/>
       <c r="U89" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="W89" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7381,7 +7381,7 @@
     <row r="90" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C90" s="12">
         <v>42569</v>
@@ -7393,15 +7393,15 @@
         <v>24</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K90" s="21"/>
       <c r="L90" s="11" t="s">
@@ -7420,7 +7420,7 @@
         <v>69</v>
       </c>
       <c r="Q90" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R90" s="16">
         <v>0.625</v>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="T90" s="22"/>
       <c r="U90" s="36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W90" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7444,27 +7444,27 @@
     <row r="91" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C91" s="12">
         <v>42569</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K91" s="14"/>
       <c r="L91" s="11" t="s">
@@ -7483,7 +7483,7 @@
         <v>69</v>
       </c>
       <c r="Q91" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R91" s="16">
         <v>0.625</v>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="T91" s="22"/>
       <c r="U91" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W91" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7507,27 +7507,27 @@
     <row r="92" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
       <c r="B92" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C92" s="12">
         <v>42569</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K92" s="18"/>
       <c r="L92" s="11" t="s">
@@ -7546,7 +7546,7 @@
         <v>69</v>
       </c>
       <c r="Q92" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R92" s="16">
         <v>0.625</v>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="T92" s="22"/>
       <c r="U92" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="W92" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7570,7 +7570,7 @@
     <row r="93" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C93" s="12">
         <v>42569</v>
@@ -7582,15 +7582,15 @@
         <v>24</v>
       </c>
       <c r="F93" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K93" s="14"/>
       <c r="L93" s="11" t="s">
@@ -7609,7 +7609,7 @@
         <v>69</v>
       </c>
       <c r="Q93" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R93" s="16">
         <v>0.625</v>
@@ -7619,7 +7619,7 @@
       </c>
       <c r="T93" s="22"/>
       <c r="U93" s="36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="W93" s="11" t="str">
         <f t="shared" si="1"/>

--- a/data-transfer/transfer/data/calphi/student.xlsx
+++ b/data-transfer/transfer/data/calphi/student.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="435">
   <si>
     <t>No</t>
   </si>
@@ -1328,7 +1328,13 @@
     <t>9/1/2016</t>
   </si>
   <si>
-    <t>Master 3</t>
+    <t>manling2008@gmail.com</t>
+  </si>
+  <si>
+    <t>wangjun_mail@yahoo.com</t>
+  </si>
+  <si>
+    <t>Graduate</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1386,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1397,12 +1403,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0504D"/>
         <bgColor rgb="FFC0504D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1477,7 +1477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1511,7 +1511,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1830,9 +1829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F46" sqref="F46"/>
+      <selection pane="topRight" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1936,7 +1935,7 @@
       <c r="E2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>290</v>
       </c>
       <c r="G2" s="11" t="s">
@@ -1963,7 +1962,7 @@
       <c r="P2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="32" t="s">
         <v>276</v>
       </c>
       <c r="R2" s="16">
@@ -1972,7 +1971,7 @@
       <c r="S2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="U2" s="34" t="s">
         <v>378</v>
       </c>
     </row>
@@ -1990,7 +1989,7 @@
       <c r="E3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>291</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -2017,7 +2016,7 @@
       <c r="P3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="32" t="s">
         <v>276</v>
       </c>
       <c r="R3" s="16">
@@ -2026,7 +2025,7 @@
       <c r="S3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="U3" s="34" t="s">
         <v>379</v>
       </c>
     </row>
@@ -2044,7 +2043,7 @@
       <c r="E4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>292</v>
       </c>
       <c r="G4" s="14" t="s">
@@ -2071,7 +2070,7 @@
       <c r="P4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="32" t="s">
         <v>276</v>
       </c>
       <c r="R4" s="16">
@@ -2080,7 +2079,7 @@
       <c r="S4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="34" t="s">
         <v>380</v>
       </c>
       <c r="W4" s="11" t="str">
@@ -2106,7 +2105,7 @@
       <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>293</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -2133,7 +2132,7 @@
       <c r="P5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="32" t="s">
         <v>276</v>
       </c>
       <c r="R5" s="16">
@@ -2142,7 +2141,7 @@
       <c r="S5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="34" t="s">
         <v>381</v>
       </c>
       <c r="W5" s="11" t="str">
@@ -2168,7 +2167,7 @@
       <c r="E6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>294</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -2195,7 +2194,7 @@
       <c r="P6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="Q6" s="32" t="s">
         <v>276</v>
       </c>
       <c r="R6" s="16">
@@ -2204,7 +2203,7 @@
       <c r="S6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="35" t="s">
+      <c r="U6" s="34" t="s">
         <v>382</v>
       </c>
       <c r="W6" s="11" t="str">
@@ -2230,7 +2229,7 @@
       <c r="E7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>294</v>
       </c>
       <c r="G7" s="19" t="s">
@@ -2257,7 +2256,7 @@
       <c r="P7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="Q7" s="32" t="s">
         <v>276</v>
       </c>
       <c r="R7" s="16">
@@ -2266,7 +2265,7 @@
       <c r="S7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U7" s="35" t="s">
+      <c r="U7" s="34" t="s">
         <v>382</v>
       </c>
       <c r="W7" s="11" t="str">
@@ -2292,7 +2291,7 @@
       <c r="E8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>295</v>
       </c>
       <c r="G8" s="20" t="s">
@@ -2319,7 +2318,7 @@
       <c r="P8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="33" t="s">
+      <c r="Q8" s="32" t="s">
         <v>276</v>
       </c>
       <c r="R8" s="16">
@@ -2328,7 +2327,7 @@
       <c r="S8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="U8" s="34" t="s">
         <v>383</v>
       </c>
       <c r="W8" s="11" t="str">
@@ -2354,7 +2353,7 @@
       <c r="E9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>296</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -2381,7 +2380,7 @@
       <c r="P9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="33" t="s">
+      <c r="Q9" s="32" t="s">
         <v>276</v>
       </c>
       <c r="R9" s="16">
@@ -2390,7 +2389,7 @@
       <c r="S9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="35" t="s">
+      <c r="U9" s="34" t="s">
         <v>384</v>
       </c>
       <c r="W9" s="11" t="str">
@@ -2416,7 +2415,7 @@
       <c r="E10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="32" t="s">
         <v>297</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -2443,7 +2442,7 @@
       <c r="P10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="33" t="s">
+      <c r="Q10" s="32" t="s">
         <v>276</v>
       </c>
       <c r="R10" s="16">
@@ -2452,7 +2451,7 @@
       <c r="S10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="U10" s="34" t="s">
         <v>380</v>
       </c>
       <c r="W10" s="11" t="str">
@@ -2478,7 +2477,7 @@
       <c r="E11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="32" t="s">
         <v>298</v>
       </c>
       <c r="G11" s="14" t="s">
@@ -2505,7 +2504,7 @@
       <c r="P11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="Q11" s="32" t="s">
         <v>276</v>
       </c>
       <c r="R11" s="16">
@@ -2515,7 +2514,7 @@
         <v>31</v>
       </c>
       <c r="T11" s="22"/>
-      <c r="U11" s="36" t="s">
+      <c r="U11" s="35" t="s">
         <v>385</v>
       </c>
       <c r="W11" s="11" t="str">
@@ -2541,7 +2540,7 @@
       <c r="E12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="32" t="s">
         <v>299</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -2568,7 +2567,7 @@
       <c r="P12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="32" t="s">
         <v>276</v>
       </c>
       <c r="R12" s="16">
@@ -2578,7 +2577,7 @@
         <v>31</v>
       </c>
       <c r="T12" s="22"/>
-      <c r="U12" s="36" t="s">
+      <c r="U12" s="35" t="s">
         <v>386</v>
       </c>
       <c r="W12" s="11" t="str">
@@ -2604,7 +2603,7 @@
       <c r="E13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="32" t="s">
         <v>300</v>
       </c>
       <c r="G13" s="14" t="s">
@@ -2631,7 +2630,7 @@
       <c r="P13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="Q13" s="32" t="s">
         <v>277</v>
       </c>
       <c r="R13" s="16">
@@ -2641,7 +2640,7 @@
         <v>31</v>
       </c>
       <c r="T13" s="22"/>
-      <c r="U13" s="36" t="s">
+      <c r="U13" s="35" t="s">
         <v>387</v>
       </c>
       <c r="W13" s="11" t="str">
@@ -2667,7 +2666,7 @@
       <c r="E14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="32" t="s">
         <v>301</v>
       </c>
       <c r="G14" s="14">
@@ -2694,7 +2693,7 @@
       <c r="P14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="33" t="s">
+      <c r="Q14" s="32" t="s">
         <v>277</v>
       </c>
       <c r="R14" s="16">
@@ -2703,7 +2702,7 @@
       <c r="S14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="35" t="s">
+      <c r="U14" s="34" t="s">
         <v>388</v>
       </c>
       <c r="W14" s="11" t="str">
@@ -2729,7 +2728,7 @@
       <c r="E15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>302</v>
       </c>
       <c r="G15" s="14" t="s">
@@ -2756,7 +2755,7 @@
       <c r="P15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="33" t="s">
+      <c r="Q15" s="32" t="s">
         <v>277</v>
       </c>
       <c r="R15" s="16">
@@ -2765,7 +2764,7 @@
       <c r="S15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="35" t="s">
+      <c r="U15" s="34" t="s">
         <v>389</v>
       </c>
       <c r="W15" s="11" t="str">
@@ -2791,7 +2790,7 @@
       <c r="E16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="32" t="s">
         <v>303</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -2818,7 +2817,7 @@
       <c r="P16" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Q16" s="33" t="s">
+      <c r="Q16" s="32" t="s">
         <v>277</v>
       </c>
       <c r="R16" s="16">
@@ -2827,7 +2826,7 @@
       <c r="S16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="U16" s="34" t="s">
         <v>387</v>
       </c>
       <c r="W16" s="11" t="str">
@@ -2853,7 +2852,7 @@
       <c r="E17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>304</v>
       </c>
       <c r="G17" s="14">
@@ -2880,7 +2879,7 @@
       <c r="P17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="Q17" s="32" t="s">
         <v>278</v>
       </c>
       <c r="R17" s="16">
@@ -2889,7 +2888,7 @@
       <c r="S17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U17" s="35" t="s">
+      <c r="U17" s="34" t="s">
         <v>390</v>
       </c>
       <c r="W17" s="11" t="str">
@@ -2911,7 +2910,7 @@
       <c r="E18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="32" t="s">
         <v>304</v>
       </c>
       <c r="G18" s="14">
@@ -2938,7 +2937,7 @@
       <c r="P18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="34" t="s">
+      <c r="Q18" s="33" t="s">
         <v>278</v>
       </c>
       <c r="R18" s="16">
@@ -2947,7 +2946,7 @@
       <c r="S18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="35" t="s">
+      <c r="U18" s="34" t="s">
         <v>390</v>
       </c>
       <c r="W18" s="11" t="str">
@@ -2973,7 +2972,7 @@
       <c r="E19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>305</v>
       </c>
       <c r="G19" s="14">
@@ -3000,7 +2999,7 @@
       <c r="P19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="34" t="s">
+      <c r="Q19" s="33" t="s">
         <v>279</v>
       </c>
       <c r="R19" s="16">
@@ -3009,7 +3008,7 @@
       <c r="S19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U19" s="35" t="s">
+      <c r="U19" s="34" t="s">
         <v>391</v>
       </c>
       <c r="W19" s="11" t="str">
@@ -3035,7 +3034,7 @@
       <c r="E20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="32" t="s">
         <v>306</v>
       </c>
       <c r="G20" s="14">
@@ -3062,7 +3061,7 @@
       <c r="P20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q20" s="34" t="s">
+      <c r="Q20" s="33" t="s">
         <v>279</v>
       </c>
       <c r="R20" s="16">
@@ -3071,7 +3070,7 @@
       <c r="S20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="35" t="s">
+      <c r="U20" s="34" t="s">
         <v>392</v>
       </c>
       <c r="W20" s="11" t="str">
@@ -3097,7 +3096,7 @@
       <c r="E21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>307</v>
       </c>
       <c r="G21" s="14">
@@ -3124,7 +3123,7 @@
       <c r="P21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="34" t="s">
+      <c r="Q21" s="33" t="s">
         <v>279</v>
       </c>
       <c r="R21" s="16">
@@ -3134,7 +3133,7 @@
         <v>31</v>
       </c>
       <c r="T21" s="24"/>
-      <c r="U21" s="37" t="s">
+      <c r="U21" s="36" t="s">
         <v>392</v>
       </c>
       <c r="W21" s="11" t="str">
@@ -3160,7 +3159,7 @@
       <c r="E22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="32" t="s">
         <v>308</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -3187,7 +3186,7 @@
       <c r="P22" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Q22" s="34" t="s">
+      <c r="Q22" s="33" t="s">
         <v>279</v>
       </c>
       <c r="R22" s="16">
@@ -3197,7 +3196,7 @@
         <v>31</v>
       </c>
       <c r="T22" s="22"/>
-      <c r="U22" s="36" t="s">
+      <c r="U22" s="35" t="s">
         <v>393</v>
       </c>
       <c r="W22" s="11" t="str">
@@ -3223,7 +3222,7 @@
       <c r="E23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>309</v>
       </c>
       <c r="G23" s="14" t="s">
@@ -3250,7 +3249,7 @@
       <c r="P23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="34" t="s">
+      <c r="Q23" s="33" t="s">
         <v>278</v>
       </c>
       <c r="R23" s="16">
@@ -3260,7 +3259,7 @@
         <v>31</v>
       </c>
       <c r="T23" s="22"/>
-      <c r="U23" s="36" t="s">
+      <c r="U23" s="35" t="s">
         <v>394</v>
       </c>
       <c r="W23" s="11" t="str">
@@ -3286,7 +3285,7 @@
       <c r="E24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="34" t="s">
         <v>310</v>
       </c>
       <c r="G24" s="14" t="s">
@@ -3313,7 +3312,7 @@
       <c r="P24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q24" s="34" t="s">
+      <c r="Q24" s="33" t="s">
         <v>278</v>
       </c>
       <c r="R24" s="16">
@@ -3323,7 +3322,7 @@
         <v>31</v>
       </c>
       <c r="T24" s="22"/>
-      <c r="U24" s="36" t="s">
+      <c r="U24" s="35" t="s">
         <v>395</v>
       </c>
       <c r="W24" s="11" t="str">
@@ -3349,7 +3348,7 @@
       <c r="E25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="32" t="s">
         <v>311</v>
       </c>
       <c r="G25" s="14" t="s">
@@ -3376,7 +3375,7 @@
       <c r="P25" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Q25" s="34" t="s">
+      <c r="Q25" s="33" t="s">
         <v>278</v>
       </c>
       <c r="R25" s="16">
@@ -3386,7 +3385,7 @@
         <v>31</v>
       </c>
       <c r="T25" s="22"/>
-      <c r="U25" s="36" t="s">
+      <c r="U25" s="35" t="s">
         <v>396</v>
       </c>
       <c r="W25" s="11" t="str">
@@ -3412,7 +3411,7 @@
       <c r="E26" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="32" t="s">
         <v>312</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -3439,7 +3438,7 @@
       <c r="P26" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Q26" s="34" t="s">
+      <c r="Q26" s="33" t="s">
         <v>278</v>
       </c>
       <c r="R26" s="16">
@@ -3449,7 +3448,7 @@
         <v>31</v>
       </c>
       <c r="T26" s="22"/>
-      <c r="U26" s="36" t="s">
+      <c r="U26" s="35" t="s">
         <v>397</v>
       </c>
       <c r="W26" s="11" t="str">
@@ -3475,7 +3474,7 @@
       <c r="E27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="32" t="s">
         <v>313</v>
       </c>
       <c r="G27" s="14">
@@ -3502,7 +3501,7 @@
       <c r="P27" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q27" s="34" t="s">
+      <c r="Q27" s="33" t="s">
         <v>280</v>
       </c>
       <c r="R27" s="16">
@@ -3512,7 +3511,7 @@
         <v>31</v>
       </c>
       <c r="T27" s="22"/>
-      <c r="U27" s="36" t="s">
+      <c r="U27" s="35" t="s">
         <v>398</v>
       </c>
       <c r="W27" s="11" t="str">
@@ -3538,7 +3537,7 @@
       <c r="E28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="34" t="s">
         <v>314</v>
       </c>
       <c r="G28" s="14">
@@ -3565,7 +3564,7 @@
       <c r="P28" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q28" s="34" t="s">
+      <c r="Q28" s="33" t="s">
         <v>280</v>
       </c>
       <c r="R28" s="16">
@@ -3575,7 +3574,7 @@
         <v>31</v>
       </c>
       <c r="T28" s="22"/>
-      <c r="U28" s="36" t="s">
+      <c r="U28" s="35" t="s">
         <v>398</v>
       </c>
       <c r="W28" s="11" t="str">
@@ -3601,7 +3600,7 @@
       <c r="E29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="34" t="s">
         <v>315</v>
       </c>
       <c r="G29" s="14" t="s">
@@ -3628,7 +3627,7 @@
       <c r="P29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" s="34" t="s">
+      <c r="Q29" s="33" t="s">
         <v>281</v>
       </c>
       <c r="R29" s="16">
@@ -3638,7 +3637,7 @@
         <v>31</v>
       </c>
       <c r="T29" s="22"/>
-      <c r="U29" s="36" t="s">
+      <c r="U29" s="35" t="s">
         <v>399</v>
       </c>
       <c r="W29" s="11" t="str">
@@ -3664,7 +3663,7 @@
       <c r="E30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="32" t="s">
         <v>316</v>
       </c>
       <c r="G30" s="14" t="s">
@@ -3691,7 +3690,7 @@
       <c r="P30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q30" s="34" t="s">
+      <c r="Q30" s="33" t="s">
         <v>280</v>
       </c>
       <c r="R30" s="16">
@@ -3700,7 +3699,7 @@
       <c r="S30" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U30" s="35" t="s">
+      <c r="U30" s="34" t="s">
         <v>399</v>
       </c>
       <c r="W30" s="11" t="str">
@@ -3726,7 +3725,7 @@
       <c r="E31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="32" t="s">
         <v>317</v>
       </c>
       <c r="G31" s="11" t="s">
@@ -3753,7 +3752,7 @@
       <c r="P31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q31" s="34" t="s">
+      <c r="Q31" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R31" s="16">
@@ -3762,7 +3761,7 @@
       <c r="S31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U31" s="35" t="s">
+      <c r="U31" s="34" t="s">
         <v>400</v>
       </c>
       <c r="W31" s="11" t="str">
@@ -3788,7 +3787,7 @@
       <c r="E32" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="32" t="s">
         <v>318</v>
       </c>
       <c r="G32" s="11" t="s">
@@ -3815,7 +3814,7 @@
       <c r="P32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q32" s="34" t="s">
+      <c r="Q32" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R32" s="16">
@@ -3824,7 +3823,7 @@
       <c r="S32" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="35" t="s">
+      <c r="U32" s="34" t="s">
         <v>400</v>
       </c>
       <c r="W32" s="11" t="str">
@@ -3850,7 +3849,7 @@
       <c r="E33" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="32" t="s">
         <v>319</v>
       </c>
       <c r="G33" s="11" t="s">
@@ -3877,7 +3876,7 @@
       <c r="P33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q33" s="34" t="s">
+      <c r="Q33" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R33" s="16">
@@ -3886,7 +3885,7 @@
       <c r="S33" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U33" s="35" t="s">
+      <c r="U33" s="34" t="s">
         <v>401</v>
       </c>
       <c r="W33" s="11" t="str">
@@ -3912,7 +3911,7 @@
       <c r="E34" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="32" t="s">
         <v>320</v>
       </c>
       <c r="G34" s="14" t="s">
@@ -3939,7 +3938,7 @@
       <c r="P34" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q34" s="34" t="s">
+      <c r="Q34" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R34" s="16">
@@ -3948,7 +3947,7 @@
       <c r="S34" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U34" s="35" t="s">
+      <c r="U34" s="34" t="s">
         <v>402</v>
       </c>
       <c r="W34" s="11" t="str">
@@ -3974,7 +3973,7 @@
       <c r="E35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="32" t="s">
         <v>321</v>
       </c>
       <c r="G35" s="14">
@@ -4001,7 +4000,7 @@
       <c r="P35" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q35" s="34" t="s">
+      <c r="Q35" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R35" s="16">
@@ -4010,7 +4009,7 @@
       <c r="S35" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U35" s="35" t="s">
+      <c r="U35" s="34" t="s">
         <v>399</v>
       </c>
       <c r="W35" s="11" t="str">
@@ -4036,7 +4035,7 @@
       <c r="E36" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="32" t="s">
         <v>322</v>
       </c>
       <c r="G36" s="14" t="s">
@@ -4063,7 +4062,7 @@
       <c r="P36" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q36" s="34" t="s">
+      <c r="Q36" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R36" s="16">
@@ -4072,7 +4071,7 @@
       <c r="S36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U36" s="35" t="s">
+      <c r="U36" s="34" t="s">
         <v>403</v>
       </c>
       <c r="W36" s="11" t="str">
@@ -4098,7 +4097,7 @@
       <c r="E37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="34" t="s">
         <v>323</v>
       </c>
       <c r="G37" s="14">
@@ -4125,7 +4124,7 @@
       <c r="P37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q37" s="34" t="s">
+      <c r="Q37" s="33" t="s">
         <v>283</v>
       </c>
       <c r="R37" s="16">
@@ -4135,7 +4134,7 @@
         <v>31</v>
       </c>
       <c r="T37" s="22"/>
-      <c r="U37" s="36" t="s">
+      <c r="U37" s="35" t="s">
         <v>399</v>
       </c>
       <c r="W37" s="11" t="str">
@@ -4161,7 +4160,7 @@
       <c r="E38" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="32" t="s">
         <v>324</v>
       </c>
       <c r="G38" s="14">
@@ -4188,7 +4187,7 @@
       <c r="P38" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q38" s="34" t="s">
+      <c r="Q38" s="33" t="s">
         <v>283</v>
       </c>
       <c r="R38" s="16">
@@ -4197,7 +4196,7 @@
       <c r="S38" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U38" s="35" t="s">
+      <c r="U38" s="34" t="s">
         <v>399</v>
       </c>
       <c r="W38" s="11" t="str">
@@ -4223,7 +4222,7 @@
       <c r="E39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="34" t="s">
         <v>325</v>
       </c>
       <c r="G39" s="14" t="s">
@@ -4250,7 +4249,7 @@
       <c r="P39" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Q39" s="34" t="s">
+      <c r="Q39" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="16">
@@ -4259,7 +4258,7 @@
       <c r="S39" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U39" s="35" t="s">
+      <c r="U39" s="34" t="s">
         <v>404</v>
       </c>
       <c r="W39" s="11" t="str">
@@ -4285,7 +4284,7 @@
       <c r="E40" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="32" t="s">
         <v>326</v>
       </c>
       <c r="G40" s="14" t="s">
@@ -4312,7 +4311,7 @@
       <c r="P40" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Q40" s="34" t="s">
+      <c r="Q40" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R40" s="16">
@@ -4321,7 +4320,7 @@
       <c r="S40" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U40" s="35" t="s">
+      <c r="U40" s="34" t="s">
         <v>399</v>
       </c>
       <c r="W40" s="11" t="str">
@@ -4347,7 +4346,7 @@
       <c r="E41" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="34" t="s">
         <v>327</v>
       </c>
       <c r="G41" s="14">
@@ -4374,7 +4373,7 @@
       <c r="P41" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q41" s="34" t="s">
+      <c r="Q41" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R41" s="16">
@@ -4383,7 +4382,7 @@
       <c r="S41" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U41" s="35" t="s">
+      <c r="U41" s="34" t="s">
         <v>405</v>
       </c>
       <c r="W41" s="11" t="str">
@@ -4409,7 +4408,7 @@
       <c r="E42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="34" t="s">
         <v>328</v>
       </c>
       <c r="G42" s="14" t="s">
@@ -4436,7 +4435,7 @@
       <c r="P42" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q42" s="34" t="s">
+      <c r="Q42" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R42" s="16">
@@ -4445,7 +4444,7 @@
       <c r="S42" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U42" s="35" t="s">
+      <c r="U42" s="34" t="s">
         <v>406</v>
       </c>
       <c r="W42" s="11" t="str">
@@ -4471,7 +4470,7 @@
       <c r="E43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="32" t="s">
         <v>329</v>
       </c>
       <c r="G43" s="14" t="s">
@@ -4498,7 +4497,7 @@
       <c r="P43" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q43" s="34" t="s">
+      <c r="Q43" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R43" s="16">
@@ -4507,7 +4506,7 @@
       <c r="S43" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U43" s="35" t="s">
+      <c r="U43" s="34" t="s">
         <v>407</v>
       </c>
       <c r="W43" s="11" t="str">
@@ -4533,7 +4532,7 @@
       <c r="E44" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="34" t="s">
         <v>330</v>
       </c>
       <c r="G44" s="14" t="s">
@@ -4560,7 +4559,7 @@
       <c r="P44" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q44" s="34" t="s">
+      <c r="Q44" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R44" s="16">
@@ -4569,7 +4568,7 @@
       <c r="S44" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U44" s="35" t="s">
+      <c r="U44" s="34" t="s">
         <v>407</v>
       </c>
       <c r="W44" s="11" t="str">
@@ -4595,7 +4594,7 @@
       <c r="E45" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="32" t="s">
         <v>331</v>
       </c>
       <c r="G45" s="26" t="s">
@@ -4622,7 +4621,7 @@
       <c r="P45" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q45" s="34" t="s">
+      <c r="Q45" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R45" s="16">
@@ -4631,7 +4630,7 @@
       <c r="S45" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U45" s="35" t="s">
+      <c r="U45" s="34" t="s">
         <v>408</v>
       </c>
       <c r="W45" s="11" t="str">
@@ -4657,7 +4656,7 @@
       <c r="E46" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="32" t="s">
         <v>332</v>
       </c>
       <c r="G46" s="14" t="s">
@@ -4684,7 +4683,7 @@
       <c r="P46" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q46" s="34" t="s">
+      <c r="Q46" s="33" t="s">
         <v>282</v>
       </c>
       <c r="R46" s="16">
@@ -4694,7 +4693,7 @@
         <v>31</v>
       </c>
       <c r="T46" s="22"/>
-      <c r="U46" s="36" t="s">
+      <c r="U46" s="35" t="s">
         <v>409</v>
       </c>
       <c r="W46" s="11" t="str">
@@ -4720,7 +4719,7 @@
       <c r="E47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="32" t="s">
         <v>333</v>
       </c>
       <c r="G47" s="14" t="s">
@@ -4728,7 +4727,9 @@
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
-      <c r="J47" s="27"/>
+      <c r="J47" s="14" t="s">
+        <v>432</v>
+      </c>
       <c r="K47" s="14"/>
       <c r="L47" s="11" t="s">
         <v>27</v>
@@ -4745,7 +4746,7 @@
       <c r="P47" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q47" s="34" t="s">
+      <c r="Q47" s="33" t="s">
         <v>284</v>
       </c>
       <c r="R47" s="16">
@@ -4755,7 +4756,7 @@
         <v>31</v>
       </c>
       <c r="T47" s="22"/>
-      <c r="U47" s="36" t="s">
+      <c r="U47" s="35" t="s">
         <v>410</v>
       </c>
       <c r="W47" s="11" t="str">
@@ -4781,7 +4782,7 @@
       <c r="E48" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="32" t="s">
         <v>334</v>
       </c>
       <c r="G48" s="14" t="s">
@@ -4808,7 +4809,7 @@
       <c r="P48" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q48" s="34" t="s">
+      <c r="Q48" s="33" t="s">
         <v>284</v>
       </c>
       <c r="R48" s="16">
@@ -4818,7 +4819,7 @@
         <v>31</v>
       </c>
       <c r="T48" s="22"/>
-      <c r="U48" s="36" t="s">
+      <c r="U48" s="35" t="s">
         <v>411</v>
       </c>
       <c r="W48" s="11" t="str">
@@ -4844,7 +4845,7 @@
       <c r="E49" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="32" t="s">
         <v>335</v>
       </c>
       <c r="G49" s="14" t="s">
@@ -4871,7 +4872,7 @@
       <c r="P49" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q49" s="34" t="s">
+      <c r="Q49" s="33" t="s">
         <v>284</v>
       </c>
       <c r="R49" s="16">
@@ -4881,7 +4882,7 @@
         <v>31</v>
       </c>
       <c r="T49" s="22"/>
-      <c r="U49" s="36" t="s">
+      <c r="U49" s="35" t="s">
         <v>412</v>
       </c>
       <c r="W49" s="11" t="str">
@@ -4907,7 +4908,7 @@
       <c r="E50" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="32" t="s">
         <v>336</v>
       </c>
       <c r="G50" s="14" t="s">
@@ -4934,7 +4935,7 @@
       <c r="P50" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q50" s="34" t="s">
+      <c r="Q50" s="33" t="s">
         <v>284</v>
       </c>
       <c r="R50" s="16">
@@ -4944,7 +4945,7 @@
         <v>31</v>
       </c>
       <c r="T50" s="22"/>
-      <c r="U50" s="36" t="s">
+      <c r="U50" s="35" t="s">
         <v>390</v>
       </c>
       <c r="W50" s="11" t="str">
@@ -4970,7 +4971,7 @@
       <c r="E51" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="32" t="s">
         <v>337</v>
       </c>
       <c r="G51" s="14" t="s">
@@ -4997,7 +4998,7 @@
       <c r="P51" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q51" s="34" t="s">
+      <c r="Q51" s="33" t="s">
         <v>284</v>
       </c>
       <c r="R51" s="16">
@@ -5007,7 +5008,7 @@
         <v>31</v>
       </c>
       <c r="T51" s="22"/>
-      <c r="U51" s="36" t="s">
+      <c r="U51" s="35" t="s">
         <v>390</v>
       </c>
       <c r="W51" s="11" t="str">
@@ -5033,7 +5034,7 @@
       <c r="E52" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="32" t="s">
         <v>338</v>
       </c>
       <c r="G52" s="14" t="s">
@@ -5060,7 +5061,7 @@
       <c r="P52" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q52" s="34" t="s">
+      <c r="Q52" s="33" t="s">
         <v>284</v>
       </c>
       <c r="R52" s="16">
@@ -5070,7 +5071,7 @@
         <v>31</v>
       </c>
       <c r="T52" s="22"/>
-      <c r="U52" s="36" t="s">
+      <c r="U52" s="35" t="s">
         <v>413</v>
       </c>
       <c r="W52" s="11" t="str">
@@ -5096,7 +5097,7 @@
       <c r="E53" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="32" t="s">
         <v>339</v>
       </c>
       <c r="G53" s="14" t="s">
@@ -5123,7 +5124,7 @@
       <c r="P53" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Q53" s="34" t="s">
+      <c r="Q53" s="33" t="s">
         <v>284</v>
       </c>
       <c r="R53" s="16">
@@ -5133,7 +5134,7 @@
         <v>31</v>
       </c>
       <c r="T53" s="22"/>
-      <c r="U53" s="36" t="s">
+      <c r="U53" s="35" t="s">
         <v>414</v>
       </c>
       <c r="W53" s="11" t="str">
@@ -5159,7 +5160,7 @@
       <c r="E54" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="32" t="s">
         <v>340</v>
       </c>
       <c r="G54" s="14" t="s">
@@ -5186,7 +5187,7 @@
       <c r="P54" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q54" s="34" t="s">
+      <c r="Q54" s="33" t="s">
         <v>285</v>
       </c>
       <c r="R54" s="16">
@@ -5196,7 +5197,7 @@
         <v>31</v>
       </c>
       <c r="T54" s="22"/>
-      <c r="U54" s="36" t="s">
+      <c r="U54" s="35" t="s">
         <v>415</v>
       </c>
       <c r="W54" s="11" t="str">
@@ -5222,7 +5223,7 @@
       <c r="E55" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="32" t="s">
         <v>341</v>
       </c>
       <c r="G55" s="14" t="s">
@@ -5249,7 +5250,7 @@
       <c r="P55" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q55" s="34" t="s">
+      <c r="Q55" s="33" t="s">
         <v>286</v>
       </c>
       <c r="R55" s="16">
@@ -5258,7 +5259,7 @@
       <c r="S55" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U55" s="35" t="s">
+      <c r="U55" s="34" t="s">
         <v>416</v>
       </c>
       <c r="W55" s="11" t="str">
@@ -5284,7 +5285,7 @@
       <c r="E56" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="32" t="s">
         <v>342</v>
       </c>
       <c r="G56" s="14" t="s">
@@ -5311,7 +5312,7 @@
       <c r="P56" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q56" s="34" t="s">
+      <c r="Q56" s="33" t="s">
         <v>286</v>
       </c>
       <c r="R56" s="16">
@@ -5320,7 +5321,7 @@
       <c r="S56" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U56" s="35" t="s">
+      <c r="U56" s="34" t="s">
         <v>417</v>
       </c>
       <c r="W56" s="11" t="str">
@@ -5346,7 +5347,7 @@
       <c r="E57" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="32" t="s">
         <v>343</v>
       </c>
       <c r="G57" s="14" t="s">
@@ -5373,7 +5374,7 @@
       <c r="P57" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q57" s="34" t="s">
+      <c r="Q57" s="33" t="s">
         <v>286</v>
       </c>
       <c r="R57" s="16">
@@ -5382,7 +5383,7 @@
       <c r="S57" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U57" s="35" t="s">
+      <c r="U57" s="34" t="s">
         <v>418</v>
       </c>
       <c r="W57" s="11" t="str">
@@ -5408,7 +5409,7 @@
       <c r="E58" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="32" t="s">
         <v>344</v>
       </c>
       <c r="G58" s="14" t="s">
@@ -5435,7 +5436,7 @@
       <c r="P58" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q58" s="34" t="s">
+      <c r="Q58" s="33" t="s">
         <v>286</v>
       </c>
       <c r="R58" s="16">
@@ -5444,7 +5445,7 @@
       <c r="S58" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U58" s="35" t="s">
+      <c r="U58" s="34" t="s">
         <v>419</v>
       </c>
       <c r="W58" s="11" t="str">
@@ -5470,7 +5471,7 @@
       <c r="E59" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="32" t="s">
         <v>345</v>
       </c>
       <c r="G59" s="14" t="s">
@@ -5497,7 +5498,7 @@
       <c r="P59" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q59" s="34" t="s">
+      <c r="Q59" s="33" t="s">
         <v>286</v>
       </c>
       <c r="R59" s="16">
@@ -5506,7 +5507,7 @@
       <c r="S59" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U59" s="35" t="s">
+      <c r="U59" s="34" t="s">
         <v>399</v>
       </c>
       <c r="W59" s="11" t="str">
@@ -5532,7 +5533,7 @@
       <c r="E60" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="33" t="s">
+      <c r="F60" s="32" t="s">
         <v>346</v>
       </c>
       <c r="G60" s="14" t="s">
@@ -5559,7 +5560,7 @@
       <c r="P60" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q60" s="34" t="s">
+      <c r="Q60" s="33" t="s">
         <v>285</v>
       </c>
       <c r="R60" s="16">
@@ -5568,7 +5569,7 @@
       <c r="S60" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U60" s="35" t="s">
+      <c r="U60" s="34" t="s">
         <v>386</v>
       </c>
       <c r="W60" s="11" t="str">
@@ -5589,12 +5590,12 @@
         <v>42569</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="32" t="s">
         <v>347</v>
       </c>
       <c r="G61" s="14" t="s">
@@ -5621,7 +5622,7 @@
       <c r="P61" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Q61" s="34" t="s">
+      <c r="Q61" s="33" t="s">
         <v>285</v>
       </c>
       <c r="R61" s="16">
@@ -5630,7 +5631,7 @@
       <c r="S61" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U61" s="35" t="s">
+      <c r="U61" s="34" t="s">
         <v>383</v>
       </c>
       <c r="W61" s="11" t="str">
@@ -5651,12 +5652,12 @@
         <v>42569</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F62" s="33" t="s">
+      <c r="F62" s="32" t="s">
         <v>348</v>
       </c>
       <c r="G62" s="14" t="s">
@@ -5683,7 +5684,7 @@
       <c r="P62" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Q62" s="34" t="s">
+      <c r="Q62" s="33" t="s">
         <v>285</v>
       </c>
       <c r="R62" s="16">
@@ -5692,7 +5693,7 @@
       <c r="S62" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U62" s="35" t="s">
+      <c r="U62" s="34" t="s">
         <v>420</v>
       </c>
       <c r="W62" s="11" t="str">
@@ -5713,12 +5714,12 @@
         <v>42569</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="33" t="s">
+      <c r="F63" s="32" t="s">
         <v>349</v>
       </c>
       <c r="G63" s="14" t="s">
@@ -5745,7 +5746,7 @@
       <c r="P63" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Q63" s="34" t="s">
+      <c r="Q63" s="33" t="s">
         <v>285</v>
       </c>
       <c r="R63" s="16">
@@ -5755,7 +5756,7 @@
         <v>31</v>
       </c>
       <c r="T63" s="22"/>
-      <c r="U63" s="36" t="s">
+      <c r="U63" s="35" t="s">
         <v>420</v>
       </c>
       <c r="W63" s="11" t="str">
@@ -5781,7 +5782,7 @@
       <c r="E64" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F64" s="32" t="s">
         <v>350</v>
       </c>
       <c r="G64" s="14" t="s">
@@ -5808,7 +5809,7 @@
       <c r="P64" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q64" s="34" t="s">
+      <c r="Q64" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R64" s="16">
@@ -5817,7 +5818,7 @@
       <c r="S64" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U64" s="35" t="s">
+      <c r="U64" s="34" t="s">
         <v>401</v>
       </c>
       <c r="W64" s="11" t="str">
@@ -5843,7 +5844,7 @@
       <c r="E65" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F65" s="32" t="s">
         <v>351</v>
       </c>
       <c r="G65" s="14" t="s">
@@ -5870,7 +5871,7 @@
       <c r="P65" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q65" s="34" t="s">
+      <c r="Q65" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R65" s="16">
@@ -5879,7 +5880,7 @@
       <c r="S65" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U65" s="35" t="s">
+      <c r="U65" s="34" t="s">
         <v>407</v>
       </c>
       <c r="W65" s="11" t="str">
@@ -5905,7 +5906,7 @@
       <c r="E66" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="33" t="s">
+      <c r="F66" s="32" t="s">
         <v>352</v>
       </c>
       <c r="G66" s="14" t="s">
@@ -5932,7 +5933,7 @@
       <c r="P66" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q66" s="34" t="s">
+      <c r="Q66" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R66" s="16">
@@ -5941,7 +5942,7 @@
       <c r="S66" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U66" s="35" t="s">
+      <c r="U66" s="34" t="s">
         <v>393</v>
       </c>
       <c r="W66" s="11" t="str">
@@ -5967,7 +5968,7 @@
       <c r="E67" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="33" t="s">
+      <c r="F67" s="32" t="s">
         <v>353</v>
       </c>
       <c r="G67" s="14" t="s">
@@ -5994,7 +5995,7 @@
       <c r="P67" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q67" s="34" t="s">
+      <c r="Q67" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R67" s="16">
@@ -6003,7 +6004,7 @@
       <c r="S67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U67" s="35" t="s">
+      <c r="U67" s="34" t="s">
         <v>386</v>
       </c>
       <c r="W67" s="11" t="str">
@@ -6029,13 +6030,15 @@
       <c r="E68" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F68" s="33" t="s">
+      <c r="F68" s="32" t="s">
         <v>354</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
-      <c r="J68" s="27"/>
+      <c r="J68" s="14" t="s">
+        <v>433</v>
+      </c>
       <c r="K68" s="14"/>
       <c r="L68" s="11" t="s">
         <v>27</v>
@@ -6052,7 +6055,7 @@
       <c r="P68" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q68" s="34" t="s">
+      <c r="Q68" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R68" s="16">
@@ -6061,7 +6064,7 @@
       <c r="S68" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U68" s="35" t="s">
+      <c r="U68" s="34" t="s">
         <v>421</v>
       </c>
       <c r="W68" s="11" t="str">
@@ -6087,7 +6090,7 @@
       <c r="E69" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F69" s="33" t="s">
+      <c r="F69" s="32" t="s">
         <v>355</v>
       </c>
       <c r="G69" s="14" t="s">
@@ -6114,7 +6117,7 @@
       <c r="P69" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q69" s="34" t="s">
+      <c r="Q69" s="33" t="s">
         <v>288</v>
       </c>
       <c r="R69" s="16">
@@ -6123,7 +6126,7 @@
       <c r="S69" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U69" s="35" t="s">
+      <c r="U69" s="34" t="s">
         <v>422</v>
       </c>
       <c r="W69" s="11" t="str">
@@ -6149,7 +6152,7 @@
       <c r="E70" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F70" s="33" t="s">
+      <c r="F70" s="32" t="s">
         <v>356</v>
       </c>
       <c r="G70" s="14" t="s">
@@ -6176,7 +6179,7 @@
       <c r="P70" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q70" s="34" t="s">
+      <c r="Q70" s="33" t="s">
         <v>288</v>
       </c>
       <c r="R70" s="16">
@@ -6185,7 +6188,7 @@
       <c r="S70" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U70" s="35" t="s">
+      <c r="U70" s="34" t="s">
         <v>423</v>
       </c>
       <c r="W70" s="11" t="str">
@@ -6211,7 +6214,7 @@
       <c r="E71" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F71" s="33" t="s">
+      <c r="F71" s="32" t="s">
         <v>357</v>
       </c>
       <c r="G71" s="14" t="s">
@@ -6238,7 +6241,7 @@
       <c r="P71" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q71" s="34" t="s">
+      <c r="Q71" s="33" t="s">
         <v>288</v>
       </c>
       <c r="R71" s="16">
@@ -6247,7 +6250,7 @@
       <c r="S71" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U71" s="35" t="s">
+      <c r="U71" s="34" t="s">
         <v>424</v>
       </c>
       <c r="W71" s="11" t="str">
@@ -6273,7 +6276,7 @@
       <c r="E72" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="32" t="s">
         <v>358</v>
       </c>
       <c r="G72" s="14" t="s">
@@ -6300,7 +6303,7 @@
       <c r="P72" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q72" s="34" t="s">
+      <c r="Q72" s="33" t="s">
         <v>289</v>
       </c>
       <c r="R72" s="16">
@@ -6310,7 +6313,7 @@
         <v>31</v>
       </c>
       <c r="T72" s="22"/>
-      <c r="U72" s="36" t="s">
+      <c r="U72" s="35" t="s">
         <v>393</v>
       </c>
       <c r="W72" s="11" t="str">
@@ -6336,7 +6339,7 @@
       <c r="E73" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="33" t="s">
+      <c r="F73" s="32" t="s">
         <v>359</v>
       </c>
       <c r="G73" s="14" t="s">
@@ -6363,7 +6366,7 @@
       <c r="P73" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q73" s="34" t="s">
+      <c r="Q73" s="33" t="s">
         <v>289</v>
       </c>
       <c r="R73" s="16">
@@ -6373,7 +6376,7 @@
         <v>31</v>
       </c>
       <c r="T73" s="22"/>
-      <c r="U73" s="36" t="s">
+      <c r="U73" s="35" t="s">
         <v>425</v>
       </c>
       <c r="W73" s="11" t="str">
@@ -6399,7 +6402,7 @@
       <c r="E74" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F74" s="32" t="s">
         <v>360</v>
       </c>
       <c r="G74" s="14" t="s">
@@ -6426,7 +6429,7 @@
       <c r="P74" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q74" s="34" t="s">
+      <c r="Q74" s="33" t="s">
         <v>289</v>
       </c>
       <c r="R74" s="16">
@@ -6436,7 +6439,7 @@
         <v>31</v>
       </c>
       <c r="T74" s="22"/>
-      <c r="U74" s="36" t="s">
+      <c r="U74" s="35" t="s">
         <v>426</v>
       </c>
       <c r="W74" s="11" t="str">
@@ -6462,7 +6465,7 @@
       <c r="E75" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="33" t="s">
+      <c r="F75" s="32" t="s">
         <v>361</v>
       </c>
       <c r="G75" s="14" t="s">
@@ -6489,7 +6492,7 @@
       <c r="P75" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q75" s="34" t="s">
+      <c r="Q75" s="33" t="s">
         <v>289</v>
       </c>
       <c r="R75" s="16">
@@ -6498,7 +6501,7 @@
       <c r="S75" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U75" s="35" t="s">
+      <c r="U75" s="34" t="s">
         <v>389</v>
       </c>
       <c r="W75" s="11" t="str">
@@ -6524,7 +6527,7 @@
       <c r="E76" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F76" s="33" t="s">
+      <c r="F76" s="32" t="s">
         <v>302</v>
       </c>
       <c r="G76" s="14" t="s">
@@ -6551,7 +6554,7 @@
       <c r="P76" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q76" s="34" t="s">
+      <c r="Q76" s="33" t="s">
         <v>289</v>
       </c>
       <c r="R76" s="16">
@@ -6560,7 +6563,7 @@
       <c r="S76" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U76" s="35" t="s">
+      <c r="U76" s="34" t="s">
         <v>389</v>
       </c>
       <c r="W76" s="11" t="str">
@@ -6586,7 +6589,7 @@
       <c r="E77" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F77" s="33" t="s">
+      <c r="F77" s="32" t="s">
         <v>343</v>
       </c>
       <c r="G77" s="14" t="s">
@@ -6613,7 +6616,7 @@
       <c r="P77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Q77" s="34" t="s">
+      <c r="Q77" s="33" t="s">
         <v>289</v>
       </c>
       <c r="R77" s="16">
@@ -6622,7 +6625,7 @@
       <c r="S77" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U77" s="35" t="s">
+      <c r="U77" s="34" t="s">
         <v>405</v>
       </c>
       <c r="W77" s="11" t="str">
@@ -6648,7 +6651,7 @@
       <c r="E78" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F78" s="33" t="s">
+      <c r="F78" s="32" t="s">
         <v>362</v>
       </c>
       <c r="G78" s="14" t="s">
@@ -6675,7 +6678,7 @@
       <c r="P78" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Q78" s="34" t="s">
+      <c r="Q78" s="33" t="s">
         <v>289</v>
       </c>
       <c r="R78" s="16">
@@ -6684,7 +6687,7 @@
       <c r="S78" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U78" s="35" t="s">
+      <c r="U78" s="34" t="s">
         <v>427</v>
       </c>
       <c r="W78" s="11" t="str">
@@ -6710,7 +6713,7 @@
       <c r="E79" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F79" s="33" t="s">
+      <c r="F79" s="32" t="s">
         <v>363</v>
       </c>
       <c r="G79" s="14" t="s">
@@ -6737,7 +6740,7 @@
       <c r="P79" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q79" s="34" t="s">
+      <c r="Q79" s="33" t="s">
         <v>289</v>
       </c>
       <c r="R79" s="16">
@@ -6746,7 +6749,7 @@
       <c r="S79" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U79" s="35" t="s">
+      <c r="U79" s="34" t="s">
         <v>422</v>
       </c>
       <c r="W79" s="11" t="str">
@@ -6772,7 +6775,7 @@
       <c r="E80" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="32" t="s">
         <v>364</v>
       </c>
       <c r="G80" s="14" t="s">
@@ -6799,7 +6802,7 @@
       <c r="P80" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q80" s="34" t="s">
+      <c r="Q80" s="33" t="s">
         <v>289</v>
       </c>
       <c r="R80" s="16">
@@ -6808,7 +6811,7 @@
       <c r="S80" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U80" s="35" t="s">
+      <c r="U80" s="34" t="s">
         <v>401</v>
       </c>
       <c r="W80" s="11" t="str">
@@ -6834,7 +6837,7 @@
       <c r="E81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F81" s="33" t="s">
+      <c r="F81" s="32" t="s">
         <v>365</v>
       </c>
       <c r="G81" s="14" t="s">
@@ -6861,7 +6864,7 @@
       <c r="P81" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q81" s="34" t="s">
+      <c r="Q81" s="33" t="s">
         <v>289</v>
       </c>
       <c r="R81" s="16">
@@ -6870,7 +6873,7 @@
       <c r="S81" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U81" s="35" t="s">
+      <c r="U81" s="34" t="s">
         <v>383</v>
       </c>
       <c r="W81" s="11" t="str">
@@ -6896,7 +6899,7 @@
       <c r="E82" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F82" s="33" t="s">
+      <c r="F82" s="32" t="s">
         <v>366</v>
       </c>
       <c r="G82" s="14" t="s">
@@ -6923,7 +6926,7 @@
       <c r="P82" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q82" s="34" t="s">
+      <c r="Q82" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R82" s="16">
@@ -6932,7 +6935,7 @@
       <c r="S82" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U82" s="35" t="s">
+      <c r="U82" s="34" t="s">
         <v>396</v>
       </c>
       <c r="W82" s="11" t="str">
@@ -6958,7 +6961,7 @@
       <c r="E83" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F83" s="33" t="s">
+      <c r="F83" s="32" t="s">
         <v>367</v>
       </c>
       <c r="G83" s="14" t="s">
@@ -6985,7 +6988,7 @@
       <c r="P83" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q83" s="34" t="s">
+      <c r="Q83" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R83" s="16">
@@ -6994,7 +6997,7 @@
       <c r="S83" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U83" s="35" t="s">
+      <c r="U83" s="34" t="s">
         <v>402</v>
       </c>
       <c r="W83" s="11" t="str">
@@ -7020,7 +7023,7 @@
       <c r="E84" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F84" s="33" t="s">
+      <c r="F84" s="32" t="s">
         <v>368</v>
       </c>
       <c r="G84" s="14" t="s">
@@ -7047,7 +7050,7 @@
       <c r="P84" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q84" s="34" t="s">
+      <c r="Q84" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R84" s="16">
@@ -7056,7 +7059,7 @@
       <c r="S84" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U84" s="35" t="s">
+      <c r="U84" s="34" t="s">
         <v>396</v>
       </c>
       <c r="W84" s="11" t="str">
@@ -7082,7 +7085,7 @@
       <c r="E85" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F85" s="33" t="s">
+      <c r="F85" s="32" t="s">
         <v>369</v>
       </c>
       <c r="G85" s="14" t="s">
@@ -7109,7 +7112,7 @@
       <c r="P85" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q85" s="34" t="s">
+      <c r="Q85" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R85" s="16">
@@ -7118,7 +7121,7 @@
       <c r="S85" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U85" s="35" t="s">
+      <c r="U85" s="34" t="s">
         <v>384</v>
       </c>
       <c r="W85" s="11" t="str">
@@ -7144,7 +7147,7 @@
       <c r="E86" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F86" s="33" t="s">
+      <c r="F86" s="32" t="s">
         <v>370</v>
       </c>
       <c r="G86" s="14" t="s">
@@ -7171,7 +7174,7 @@
       <c r="P86" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q86" s="34" t="s">
+      <c r="Q86" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R86" s="16">
@@ -7180,7 +7183,7 @@
       <c r="S86" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U86" s="35" t="s">
+      <c r="U86" s="34" t="s">
         <v>407</v>
       </c>
       <c r="W86" s="11" t="str">
@@ -7203,7 +7206,7 @@
       <c r="D87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F87" s="33" t="s">
+      <c r="F87" s="32" t="s">
         <v>371</v>
       </c>
       <c r="G87" s="14" t="s">
@@ -7230,7 +7233,7 @@
       <c r="P87" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q87" s="34" t="s">
+      <c r="Q87" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R87" s="16">
@@ -7240,7 +7243,7 @@
         <v>31</v>
       </c>
       <c r="T87" s="22"/>
-      <c r="U87" s="36" t="s">
+      <c r="U87" s="35" t="s">
         <v>381</v>
       </c>
       <c r="W87" s="11" t="str">
@@ -7266,7 +7269,7 @@
       <c r="E88" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F88" s="33" t="s">
+      <c r="F88" s="32" t="s">
         <v>372</v>
       </c>
       <c r="G88" s="14" t="s">
@@ -7293,7 +7296,7 @@
       <c r="P88" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q88" s="34" t="s">
+      <c r="Q88" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R88" s="16">
@@ -7303,7 +7306,7 @@
         <v>31</v>
       </c>
       <c r="T88" s="22"/>
-      <c r="U88" s="36" t="s">
+      <c r="U88" s="35" t="s">
         <v>428</v>
       </c>
       <c r="W88" s="11" t="str">
@@ -7329,7 +7332,7 @@
       <c r="E89" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F89" s="33" t="s">
+      <c r="F89" s="32" t="s">
         <v>373</v>
       </c>
       <c r="G89" s="14" t="s">
@@ -7356,7 +7359,7 @@
       <c r="P89" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Q89" s="34" t="s">
+      <c r="Q89" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R89" s="16">
@@ -7366,7 +7369,7 @@
         <v>31</v>
       </c>
       <c r="T89" s="22"/>
-      <c r="U89" s="36" t="s">
+      <c r="U89" s="35" t="s">
         <v>429</v>
       </c>
       <c r="W89" s="11" t="str">
@@ -7392,7 +7395,7 @@
       <c r="E90" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F90" s="33" t="s">
+      <c r="F90" s="32" t="s">
         <v>374</v>
       </c>
       <c r="G90" s="14" t="s">
@@ -7419,7 +7422,7 @@
       <c r="P90" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Q90" s="34" t="s">
+      <c r="Q90" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R90" s="16">
@@ -7429,7 +7432,7 @@
         <v>31</v>
       </c>
       <c r="T90" s="22"/>
-      <c r="U90" s="36" t="s">
+      <c r="U90" s="35" t="s">
         <v>430</v>
       </c>
       <c r="W90" s="11" t="str">
@@ -7455,7 +7458,7 @@
       <c r="E91" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F91" s="33" t="s">
+      <c r="F91" s="32" t="s">
         <v>375</v>
       </c>
       <c r="G91" s="14" t="s">
@@ -7482,7 +7485,7 @@
       <c r="P91" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Q91" s="34" t="s">
+      <c r="Q91" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R91" s="16">
@@ -7492,7 +7495,7 @@
         <v>31</v>
       </c>
       <c r="T91" s="22"/>
-      <c r="U91" s="36" t="s">
+      <c r="U91" s="35" t="s">
         <v>383</v>
       </c>
       <c r="W91" s="11" t="str">
@@ -7518,7 +7521,7 @@
       <c r="E92" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F92" s="33" t="s">
+      <c r="F92" s="32" t="s">
         <v>376</v>
       </c>
       <c r="G92" s="14" t="s">
@@ -7545,7 +7548,7 @@
       <c r="P92" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Q92" s="34" t="s">
+      <c r="Q92" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R92" s="16">
@@ -7555,7 +7558,7 @@
         <v>31</v>
       </c>
       <c r="T92" s="22"/>
-      <c r="U92" s="36" t="s">
+      <c r="U92" s="35" t="s">
         <v>382</v>
       </c>
       <c r="W92" s="11" t="str">
@@ -7581,7 +7584,7 @@
       <c r="E93" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F93" s="33" t="s">
+      <c r="F93" s="32" t="s">
         <v>377</v>
       </c>
       <c r="G93" s="14" t="s">
@@ -7608,7 +7611,7 @@
       <c r="P93" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Q93" s="34" t="s">
+      <c r="Q93" s="33" t="s">
         <v>287</v>
       </c>
       <c r="R93" s="16">
@@ -7618,7 +7621,7 @@
         <v>31</v>
       </c>
       <c r="T93" s="22"/>
-      <c r="U93" s="36" t="s">
+      <c r="U93" s="35" t="s">
         <v>431</v>
       </c>
       <c r="W93" s="11" t="str">
@@ -7639,11 +7642,11 @@
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
       <c r="N94" s="14"/>
-      <c r="O94" s="28"/>
-      <c r="P94" s="29"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="28"/>
       <c r="Q94" s="23"/>
       <c r="R94" s="16"/>
-      <c r="S94" s="30"/>
+      <c r="S94" s="29"/>
       <c r="W94" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7662,11 +7665,11 @@
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
       <c r="N95" s="14"/>
-      <c r="O95" s="28"/>
-      <c r="P95" s="29"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="28"/>
       <c r="Q95" s="23"/>
       <c r="R95" s="16"/>
-      <c r="S95" s="30"/>
+      <c r="S95" s="29"/>
       <c r="W95" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7685,11 +7688,11 @@
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
       <c r="N96" s="14"/>
-      <c r="O96" s="28"/>
-      <c r="P96" s="29"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="28"/>
       <c r="Q96" s="23"/>
       <c r="R96" s="16"/>
-      <c r="S96" s="30"/>
+      <c r="S96" s="29"/>
       <c r="W96" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7708,11 +7711,11 @@
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
       <c r="N97" s="14"/>
-      <c r="O97" s="28"/>
-      <c r="P97" s="29"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="28"/>
       <c r="Q97" s="23"/>
       <c r="R97" s="16"/>
-      <c r="S97" s="30"/>
+      <c r="S97" s="29"/>
       <c r="W97" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7731,11 +7734,11 @@
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
       <c r="N98" s="14"/>
-      <c r="O98" s="28"/>
-      <c r="P98" s="29"/>
+      <c r="O98" s="27"/>
+      <c r="P98" s="28"/>
       <c r="Q98" s="23"/>
       <c r="R98" s="16"/>
-      <c r="S98" s="30"/>
+      <c r="S98" s="29"/>
       <c r="W98" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7754,11 +7757,11 @@
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
       <c r="N99" s="14"/>
-      <c r="O99" s="28"/>
-      <c r="P99" s="29"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="28"/>
       <c r="Q99" s="23"/>
       <c r="R99" s="16"/>
-      <c r="S99" s="30"/>
+      <c r="S99" s="29"/>
       <c r="W99" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7777,11 +7780,11 @@
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
       <c r="N100" s="14"/>
-      <c r="O100" s="28"/>
-      <c r="P100" s="29"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="28"/>
       <c r="Q100" s="23"/>
       <c r="R100" s="16"/>
-      <c r="S100" s="30"/>
+      <c r="S100" s="29"/>
       <c r="T100" s="22"/>
       <c r="U100" s="22"/>
       <c r="W100" s="11" t="str">
@@ -7802,11 +7805,11 @@
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
       <c r="N101" s="14"/>
-      <c r="O101" s="28"/>
-      <c r="P101" s="29"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="28"/>
       <c r="Q101" s="23"/>
       <c r="R101" s="16"/>
-      <c r="S101" s="30"/>
+      <c r="S101" s="29"/>
       <c r="T101" s="24"/>
       <c r="U101" s="24"/>
       <c r="W101" s="11" t="str">
@@ -7827,11 +7830,11 @@
       <c r="L102" s="14"/>
       <c r="M102" s="14"/>
       <c r="N102" s="14"/>
-      <c r="O102" s="28"/>
-      <c r="P102" s="29"/>
+      <c r="O102" s="27"/>
+      <c r="P102" s="28"/>
       <c r="Q102" s="23"/>
       <c r="R102" s="16"/>
-      <c r="S102" s="30"/>
+      <c r="S102" s="29"/>
       <c r="T102" s="24"/>
       <c r="U102" s="24"/>
       <c r="W102" s="11" t="str">
@@ -7852,11 +7855,11 @@
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
       <c r="N103" s="14"/>
-      <c r="O103" s="28"/>
-      <c r="P103" s="29"/>
+      <c r="O103" s="27"/>
+      <c r="P103" s="28"/>
       <c r="Q103" s="23"/>
       <c r="R103" s="16"/>
-      <c r="S103" s="30"/>
+      <c r="S103" s="29"/>
       <c r="T103" s="24"/>
       <c r="U103" s="24"/>
       <c r="W103" s="11" t="str">
@@ -7877,11 +7880,11 @@
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
       <c r="N104" s="14"/>
-      <c r="O104" s="28"/>
-      <c r="P104" s="29"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="28"/>
       <c r="Q104" s="23"/>
       <c r="R104" s="16"/>
-      <c r="S104" s="30"/>
+      <c r="S104" s="29"/>
       <c r="T104" s="24"/>
       <c r="U104" s="24"/>
       <c r="W104" s="11" t="str">
@@ -7902,11 +7905,11 @@
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
       <c r="N105" s="14"/>
-      <c r="O105" s="28"/>
-      <c r="P105" s="29"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="28"/>
       <c r="Q105" s="23"/>
       <c r="R105" s="16"/>
-      <c r="S105" s="30"/>
+      <c r="S105" s="29"/>
       <c r="W105" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7925,11 +7928,11 @@
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
       <c r="N106" s="14"/>
-      <c r="O106" s="28"/>
-      <c r="P106" s="29"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="28"/>
       <c r="Q106" s="23"/>
       <c r="R106" s="16"/>
-      <c r="S106" s="30"/>
+      <c r="S106" s="29"/>
       <c r="T106" s="24"/>
       <c r="U106" s="24"/>
       <c r="W106" s="11" t="str">
@@ -7950,11 +7953,11 @@
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
       <c r="N107" s="14"/>
-      <c r="O107" s="28"/>
-      <c r="P107" s="29"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="28"/>
       <c r="Q107" s="23"/>
       <c r="R107" s="16"/>
-      <c r="S107" s="30"/>
+      <c r="S107" s="29"/>
       <c r="W107" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7973,11 +7976,11 @@
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
       <c r="N108" s="14"/>
-      <c r="O108" s="28"/>
-      <c r="P108" s="29"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="28"/>
       <c r="Q108" s="23"/>
       <c r="R108" s="16"/>
-      <c r="S108" s="30"/>
+      <c r="S108" s="29"/>
       <c r="T108" s="24"/>
       <c r="U108" s="24"/>
       <c r="W108" s="11" t="str">
@@ -7998,11 +8001,11 @@
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
       <c r="N109" s="14"/>
-      <c r="O109" s="28"/>
-      <c r="P109" s="29"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="28"/>
       <c r="Q109" s="23"/>
       <c r="R109" s="16"/>
-      <c r="S109" s="30"/>
+      <c r="S109" s="29"/>
       <c r="W109" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8021,11 +8024,11 @@
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
       <c r="N110" s="14"/>
-      <c r="O110" s="28"/>
-      <c r="P110" s="29"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="28"/>
       <c r="Q110" s="23"/>
       <c r="R110" s="16"/>
-      <c r="S110" s="30"/>
+      <c r="S110" s="29"/>
       <c r="W110" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8044,11 +8047,11 @@
       <c r="L111" s="14"/>
       <c r="M111" s="14"/>
       <c r="N111" s="14"/>
-      <c r="O111" s="28"/>
-      <c r="P111" s="29"/>
+      <c r="O111" s="27"/>
+      <c r="P111" s="28"/>
       <c r="Q111" s="23"/>
       <c r="R111" s="16"/>
-      <c r="S111" s="30"/>
+      <c r="S111" s="29"/>
       <c r="W111" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8067,11 +8070,11 @@
       <c r="L112" s="14"/>
       <c r="M112" s="14"/>
       <c r="N112" s="14"/>
-      <c r="O112" s="28"/>
-      <c r="P112" s="29"/>
+      <c r="O112" s="27"/>
+      <c r="P112" s="28"/>
       <c r="Q112" s="23"/>
       <c r="R112" s="16"/>
-      <c r="S112" s="30"/>
+      <c r="S112" s="29"/>
       <c r="W112" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8090,11 +8093,11 @@
       <c r="L113" s="14"/>
       <c r="M113" s="14"/>
       <c r="N113" s="14"/>
-      <c r="O113" s="28"/>
-      <c r="P113" s="29"/>
+      <c r="O113" s="27"/>
+      <c r="P113" s="28"/>
       <c r="Q113" s="23"/>
       <c r="R113" s="16"/>
-      <c r="S113" s="30"/>
+      <c r="S113" s="29"/>
       <c r="W113" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8113,11 +8116,11 @@
       <c r="L114" s="14"/>
       <c r="M114" s="14"/>
       <c r="N114" s="14"/>
-      <c r="O114" s="28"/>
-      <c r="P114" s="29"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="28"/>
       <c r="Q114" s="23"/>
       <c r="R114" s="16"/>
-      <c r="S114" s="30"/>
+      <c r="S114" s="29"/>
       <c r="W114" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8136,11 +8139,11 @@
       <c r="L115" s="14"/>
       <c r="M115" s="14"/>
       <c r="N115" s="14"/>
-      <c r="O115" s="28"/>
-      <c r="P115" s="29"/>
+      <c r="O115" s="27"/>
+      <c r="P115" s="28"/>
       <c r="Q115" s="23"/>
       <c r="R115" s="16"/>
-      <c r="S115" s="30"/>
+      <c r="S115" s="29"/>
       <c r="W115" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8159,11 +8162,11 @@
       <c r="L116" s="14"/>
       <c r="M116" s="14"/>
       <c r="N116" s="14"/>
-      <c r="O116" s="28"/>
-      <c r="P116" s="29"/>
+      <c r="O116" s="27"/>
+      <c r="P116" s="28"/>
       <c r="Q116" s="23"/>
       <c r="R116" s="16"/>
-      <c r="S116" s="30"/>
+      <c r="S116" s="29"/>
       <c r="W116" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8182,11 +8185,11 @@
       <c r="L117" s="14"/>
       <c r="M117" s="14"/>
       <c r="N117" s="14"/>
-      <c r="O117" s="28"/>
-      <c r="P117" s="29"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="28"/>
       <c r="Q117" s="23"/>
       <c r="R117" s="16"/>
-      <c r="S117" s="30"/>
+      <c r="S117" s="29"/>
       <c r="W117" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8205,11 +8208,11 @@
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
       <c r="N118" s="14"/>
-      <c r="O118" s="28"/>
-      <c r="P118" s="29"/>
+      <c r="O118" s="27"/>
+      <c r="P118" s="28"/>
       <c r="Q118" s="23"/>
       <c r="R118" s="16"/>
-      <c r="S118" s="30"/>
+      <c r="S118" s="29"/>
       <c r="W118" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8228,11 +8231,11 @@
       <c r="L119" s="14"/>
       <c r="M119" s="14"/>
       <c r="N119" s="14"/>
-      <c r="O119" s="28"/>
-      <c r="P119" s="29"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="28"/>
       <c r="Q119" s="23"/>
       <c r="R119" s="16"/>
-      <c r="S119" s="30"/>
+      <c r="S119" s="29"/>
       <c r="W119" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8251,11 +8254,11 @@
       <c r="L120" s="14"/>
       <c r="M120" s="14"/>
       <c r="N120" s="14"/>
-      <c r="O120" s="28"/>
-      <c r="P120" s="29"/>
+      <c r="O120" s="27"/>
+      <c r="P120" s="28"/>
       <c r="Q120" s="23"/>
       <c r="R120" s="16"/>
-      <c r="S120" s="30"/>
+      <c r="S120" s="29"/>
       <c r="W120" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8274,11 +8277,11 @@
       <c r="L121" s="14"/>
       <c r="M121" s="14"/>
       <c r="N121" s="14"/>
-      <c r="O121" s="28"/>
-      <c r="P121" s="29"/>
+      <c r="O121" s="27"/>
+      <c r="P121" s="28"/>
       <c r="Q121" s="23"/>
       <c r="R121" s="16"/>
-      <c r="S121" s="30"/>
+      <c r="S121" s="29"/>
       <c r="W121" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8297,11 +8300,11 @@
       <c r="L122" s="14"/>
       <c r="M122" s="14"/>
       <c r="N122" s="14"/>
-      <c r="O122" s="28"/>
-      <c r="P122" s="29"/>
+      <c r="O122" s="27"/>
+      <c r="P122" s="28"/>
       <c r="Q122" s="23"/>
       <c r="R122" s="16"/>
-      <c r="S122" s="30"/>
+      <c r="S122" s="29"/>
       <c r="W122" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8320,11 +8323,11 @@
       <c r="L123" s="14"/>
       <c r="M123" s="14"/>
       <c r="N123" s="14"/>
-      <c r="O123" s="28"/>
-      <c r="P123" s="29"/>
+      <c r="O123" s="27"/>
+      <c r="P123" s="28"/>
       <c r="Q123" s="23"/>
       <c r="R123" s="16"/>
-      <c r="S123" s="30"/>
+      <c r="S123" s="29"/>
       <c r="W123" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8343,11 +8346,11 @@
       <c r="L124" s="14"/>
       <c r="M124" s="14"/>
       <c r="N124" s="14"/>
-      <c r="O124" s="28"/>
-      <c r="P124" s="29"/>
+      <c r="O124" s="27"/>
+      <c r="P124" s="28"/>
       <c r="Q124" s="23"/>
       <c r="R124" s="16"/>
-      <c r="S124" s="30"/>
+      <c r="S124" s="29"/>
       <c r="W124" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8366,11 +8369,11 @@
       <c r="L125" s="14"/>
       <c r="M125" s="14"/>
       <c r="N125" s="14"/>
-      <c r="O125" s="28"/>
-      <c r="P125" s="29"/>
+      <c r="O125" s="27"/>
+      <c r="P125" s="28"/>
       <c r="Q125" s="23"/>
       <c r="R125" s="16"/>
-      <c r="S125" s="30"/>
+      <c r="S125" s="29"/>
       <c r="W125" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8389,11 +8392,11 @@
       <c r="L126" s="14"/>
       <c r="M126" s="14"/>
       <c r="N126" s="14"/>
-      <c r="O126" s="28"/>
-      <c r="P126" s="29"/>
+      <c r="O126" s="27"/>
+      <c r="P126" s="28"/>
       <c r="Q126" s="23"/>
       <c r="R126" s="16"/>
-      <c r="S126" s="30"/>
+      <c r="S126" s="29"/>
       <c r="W126" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8412,11 +8415,11 @@
       <c r="L127" s="14"/>
       <c r="M127" s="14"/>
       <c r="N127" s="14"/>
-      <c r="O127" s="28"/>
-      <c r="P127" s="29"/>
+      <c r="O127" s="27"/>
+      <c r="P127" s="28"/>
       <c r="Q127" s="23"/>
       <c r="R127" s="16"/>
-      <c r="S127" s="30"/>
+      <c r="S127" s="29"/>
       <c r="W127" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8435,11 +8438,11 @@
       <c r="L128" s="14"/>
       <c r="M128" s="14"/>
       <c r="N128" s="14"/>
-      <c r="O128" s="28"/>
-      <c r="P128" s="29"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="28"/>
       <c r="Q128" s="23"/>
       <c r="R128" s="16"/>
-      <c r="S128" s="30"/>
+      <c r="S128" s="29"/>
       <c r="W128" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8458,11 +8461,11 @@
       <c r="L129" s="14"/>
       <c r="M129" s="14"/>
       <c r="N129" s="14"/>
-      <c r="O129" s="28"/>
-      <c r="P129" s="29"/>
+      <c r="O129" s="27"/>
+      <c r="P129" s="28"/>
       <c r="Q129" s="23"/>
       <c r="R129" s="16"/>
-      <c r="S129" s="30"/>
+      <c r="S129" s="29"/>
       <c r="W129" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8481,11 +8484,11 @@
       <c r="L130" s="14"/>
       <c r="M130" s="14"/>
       <c r="N130" s="14"/>
-      <c r="O130" s="28"/>
-      <c r="P130" s="29"/>
+      <c r="O130" s="27"/>
+      <c r="P130" s="28"/>
       <c r="Q130" s="23"/>
       <c r="R130" s="16"/>
-      <c r="S130" s="30"/>
+      <c r="S130" s="29"/>
       <c r="W130" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8504,11 +8507,11 @@
       <c r="L131" s="14"/>
       <c r="M131" s="14"/>
       <c r="N131" s="14"/>
-      <c r="O131" s="28"/>
-      <c r="P131" s="29"/>
+      <c r="O131" s="27"/>
+      <c r="P131" s="28"/>
       <c r="Q131" s="23"/>
       <c r="R131" s="16"/>
-      <c r="S131" s="30"/>
+      <c r="S131" s="29"/>
       <c r="W131" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8527,11 +8530,11 @@
       <c r="L132" s="14"/>
       <c r="M132" s="14"/>
       <c r="N132" s="14"/>
-      <c r="O132" s="28"/>
-      <c r="P132" s="29"/>
+      <c r="O132" s="27"/>
+      <c r="P132" s="28"/>
       <c r="Q132" s="23"/>
       <c r="R132" s="16"/>
-      <c r="S132" s="30"/>
+      <c r="S132" s="29"/>
       <c r="T132" s="24"/>
       <c r="U132" s="24"/>
       <c r="W132" s="11" t="str">
@@ -8552,11 +8555,11 @@
       <c r="L133" s="14"/>
       <c r="M133" s="14"/>
       <c r="N133" s="14"/>
-      <c r="O133" s="28"/>
-      <c r="P133" s="29"/>
+      <c r="O133" s="27"/>
+      <c r="P133" s="28"/>
       <c r="Q133" s="23"/>
       <c r="R133" s="16"/>
-      <c r="S133" s="30"/>
+      <c r="S133" s="29"/>
       <c r="T133" s="24"/>
       <c r="U133" s="24"/>
       <c r="W133" s="11" t="str">
@@ -8577,11 +8580,11 @@
       <c r="L134" s="14"/>
       <c r="M134" s="14"/>
       <c r="N134" s="14"/>
-      <c r="O134" s="28"/>
-      <c r="P134" s="29"/>
+      <c r="O134" s="27"/>
+      <c r="P134" s="28"/>
       <c r="Q134" s="23"/>
       <c r="R134" s="16"/>
-      <c r="S134" s="30"/>
+      <c r="S134" s="29"/>
       <c r="W134" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8606,11 +8609,11 @@
       <c r="L135" s="14"/>
       <c r="M135" s="14"/>
       <c r="N135" s="14"/>
-      <c r="O135" s="28"/>
-      <c r="P135" s="29"/>
+      <c r="O135" s="27"/>
+      <c r="P135" s="28"/>
       <c r="Q135" s="23"/>
       <c r="R135" s="16"/>
-      <c r="S135" s="30"/>
+      <c r="S135" s="29"/>
       <c r="T135" s="24"/>
       <c r="U135" s="24"/>
       <c r="W135" s="11" t="str">
@@ -8637,11 +8640,11 @@
       <c r="L136" s="14"/>
       <c r="M136" s="14"/>
       <c r="N136" s="14"/>
-      <c r="O136" s="28"/>
-      <c r="P136" s="29"/>
+      <c r="O136" s="27"/>
+      <c r="P136" s="28"/>
       <c r="Q136" s="23"/>
       <c r="R136" s="16"/>
-      <c r="S136" s="30"/>
+      <c r="S136" s="29"/>
       <c r="W136" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8666,11 +8669,11 @@
       <c r="L137" s="14"/>
       <c r="M137" s="14"/>
       <c r="N137" s="14"/>
-      <c r="O137" s="28"/>
-      <c r="P137" s="29"/>
+      <c r="O137" s="27"/>
+      <c r="P137" s="28"/>
       <c r="Q137" s="23"/>
       <c r="R137" s="16"/>
-      <c r="S137" s="30"/>
+      <c r="S137" s="29"/>
       <c r="W137" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8695,11 +8698,11 @@
       <c r="L138" s="14"/>
       <c r="M138" s="14"/>
       <c r="N138" s="14"/>
-      <c r="O138" s="28"/>
-      <c r="P138" s="29"/>
+      <c r="O138" s="27"/>
+      <c r="P138" s="28"/>
       <c r="Q138" s="23"/>
       <c r="R138" s="16"/>
-      <c r="S138" s="30"/>
+      <c r="S138" s="29"/>
       <c r="W138" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8724,11 +8727,11 @@
       <c r="L139" s="14"/>
       <c r="M139" s="14"/>
       <c r="N139" s="14"/>
-      <c r="O139" s="28"/>
-      <c r="P139" s="29"/>
+      <c r="O139" s="27"/>
+      <c r="P139" s="28"/>
       <c r="Q139" s="23"/>
       <c r="R139" s="16"/>
-      <c r="S139" s="30"/>
+      <c r="S139" s="29"/>
       <c r="W139" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8753,11 +8756,11 @@
       <c r="L140" s="14"/>
       <c r="M140" s="14"/>
       <c r="N140" s="14"/>
-      <c r="O140" s="28"/>
-      <c r="P140" s="29"/>
+      <c r="O140" s="27"/>
+      <c r="P140" s="28"/>
       <c r="Q140" s="23"/>
       <c r="R140" s="16"/>
-      <c r="S140" s="30"/>
+      <c r="S140" s="29"/>
       <c r="W140" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8782,11 +8785,11 @@
       <c r="L141" s="14"/>
       <c r="M141" s="14"/>
       <c r="N141" s="14"/>
-      <c r="O141" s="28"/>
-      <c r="P141" s="29"/>
+      <c r="O141" s="27"/>
+      <c r="P141" s="28"/>
       <c r="Q141" s="23"/>
       <c r="R141" s="16"/>
-      <c r="S141" s="30"/>
+      <c r="S141" s="29"/>
       <c r="W141" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8811,11 +8814,11 @@
       <c r="L142" s="14"/>
       <c r="M142" s="14"/>
       <c r="N142" s="14"/>
-      <c r="O142" s="28"/>
-      <c r="P142" s="29"/>
+      <c r="O142" s="27"/>
+      <c r="P142" s="28"/>
       <c r="Q142" s="23"/>
       <c r="R142" s="16"/>
-      <c r="S142" s="30"/>
+      <c r="S142" s="29"/>
       <c r="W142" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8840,11 +8843,11 @@
       <c r="L143" s="14"/>
       <c r="M143" s="14"/>
       <c r="N143" s="14"/>
-      <c r="O143" s="28"/>
-      <c r="P143" s="29"/>
+      <c r="O143" s="27"/>
+      <c r="P143" s="28"/>
       <c r="Q143" s="23"/>
       <c r="R143" s="16"/>
-      <c r="S143" s="30"/>
+      <c r="S143" s="29"/>
       <c r="W143" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8869,11 +8872,11 @@
       <c r="L144" s="14"/>
       <c r="M144" s="14"/>
       <c r="N144" s="14"/>
-      <c r="O144" s="28"/>
-      <c r="P144" s="29"/>
+      <c r="O144" s="27"/>
+      <c r="P144" s="28"/>
       <c r="Q144" s="23"/>
       <c r="R144" s="16"/>
-      <c r="S144" s="30"/>
+      <c r="S144" s="29"/>
       <c r="W144" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8898,11 +8901,11 @@
       <c r="L145" s="14"/>
       <c r="M145" s="14"/>
       <c r="N145" s="14"/>
-      <c r="O145" s="28"/>
-      <c r="P145" s="29"/>
+      <c r="O145" s="27"/>
+      <c r="P145" s="28"/>
       <c r="Q145" s="23"/>
       <c r="R145" s="16"/>
-      <c r="S145" s="30"/>
+      <c r="S145" s="29"/>
       <c r="W145" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8927,11 +8930,11 @@
       <c r="L146" s="14"/>
       <c r="M146" s="14"/>
       <c r="N146" s="14"/>
-      <c r="O146" s="28"/>
-      <c r="P146" s="29"/>
+      <c r="O146" s="27"/>
+      <c r="P146" s="28"/>
       <c r="Q146" s="23"/>
       <c r="R146" s="16"/>
-      <c r="S146" s="30"/>
+      <c r="S146" s="29"/>
       <c r="W146" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8956,11 +8959,11 @@
       <c r="L147" s="14"/>
       <c r="M147" s="14"/>
       <c r="N147" s="14"/>
-      <c r="O147" s="28"/>
-      <c r="P147" s="29"/>
+      <c r="O147" s="27"/>
+      <c r="P147" s="28"/>
       <c r="Q147" s="23"/>
       <c r="R147" s="16"/>
-      <c r="S147" s="30"/>
+      <c r="S147" s="29"/>
       <c r="W147" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8985,11 +8988,11 @@
       <c r="L148" s="14"/>
       <c r="M148" s="14"/>
       <c r="N148" s="14"/>
-      <c r="O148" s="28"/>
-      <c r="P148" s="29"/>
+      <c r="O148" s="27"/>
+      <c r="P148" s="28"/>
       <c r="Q148" s="23"/>
       <c r="R148" s="16"/>
-      <c r="S148" s="30"/>
+      <c r="S148" s="29"/>
       <c r="W148" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9014,11 +9017,11 @@
       <c r="L149" s="14"/>
       <c r="M149" s="14"/>
       <c r="N149" s="14"/>
-      <c r="O149" s="28"/>
-      <c r="P149" s="29"/>
+      <c r="O149" s="27"/>
+      <c r="P149" s="28"/>
       <c r="Q149" s="23"/>
       <c r="R149" s="16"/>
-      <c r="S149" s="30"/>
+      <c r="S149" s="29"/>
       <c r="W149" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9030,24 +9033,24 @@
     </row>
     <row r="150" spans="1:24" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
-      <c r="B150" s="31"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
       <c r="E150" s="14"/>
-      <c r="F150" s="32"/>
-      <c r="G150" s="31"/>
-      <c r="H150" s="31"/>
-      <c r="I150" s="31"/>
-      <c r="J150" s="31"/>
-      <c r="K150" s="31"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="30"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
+      <c r="K150" s="30"/>
       <c r="L150" s="14"/>
       <c r="M150" s="14"/>
-      <c r="N150" s="31"/>
-      <c r="O150" s="28"/>
-      <c r="P150" s="29"/>
+      <c r="N150" s="30"/>
+      <c r="O150" s="27"/>
+      <c r="P150" s="28"/>
       <c r="Q150" s="23"/>
       <c r="R150" s="16"/>
-      <c r="S150" s="30"/>
+      <c r="S150" s="29"/>
       <c r="W150" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9071,11 +9074,11 @@
       <c r="L151" s="14"/>
       <c r="M151" s="14"/>
       <c r="N151" s="14"/>
-      <c r="O151" s="28"/>
-      <c r="P151" s="29"/>
+      <c r="O151" s="27"/>
+      <c r="P151" s="28"/>
       <c r="Q151" s="23"/>
       <c r="R151" s="16"/>
-      <c r="S151" s="30"/>
+      <c r="S151" s="29"/>
       <c r="W151" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9098,11 +9101,11 @@
       <c r="L152" s="14"/>
       <c r="M152" s="14"/>
       <c r="N152" s="14"/>
-      <c r="O152" s="28"/>
-      <c r="P152" s="29"/>
+      <c r="O152" s="27"/>
+      <c r="P152" s="28"/>
       <c r="Q152" s="23"/>
       <c r="R152" s="16"/>
-      <c r="S152" s="30"/>
+      <c r="S152" s="29"/>
       <c r="W152" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9126,11 +9129,11 @@
       <c r="L153" s="24"/>
       <c r="M153" s="14"/>
       <c r="N153" s="24"/>
-      <c r="O153" s="28"/>
-      <c r="P153" s="29"/>
+      <c r="O153" s="27"/>
+      <c r="P153" s="28"/>
       <c r="Q153" s="23"/>
       <c r="R153" s="16"/>
-      <c r="S153" s="30"/>
+      <c r="S153" s="29"/>
       <c r="W153" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9155,11 +9158,11 @@
       <c r="L154" s="24"/>
       <c r="M154" s="14"/>
       <c r="N154" s="24"/>
-      <c r="O154" s="28"/>
-      <c r="P154" s="29"/>
+      <c r="O154" s="27"/>
+      <c r="P154" s="28"/>
       <c r="Q154" s="23"/>
       <c r="R154" s="16"/>
-      <c r="S154" s="30"/>
+      <c r="S154" s="29"/>
       <c r="W154" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9184,11 +9187,11 @@
       <c r="L155" s="24"/>
       <c r="M155" s="14"/>
       <c r="N155" s="24"/>
-      <c r="O155" s="28"/>
-      <c r="P155" s="29"/>
+      <c r="O155" s="27"/>
+      <c r="P155" s="28"/>
       <c r="Q155" s="23"/>
       <c r="R155" s="16"/>
-      <c r="S155" s="30"/>
+      <c r="S155" s="29"/>
       <c r="W155" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9213,11 +9216,11 @@
       <c r="L156" s="24"/>
       <c r="M156" s="14"/>
       <c r="N156" s="24"/>
-      <c r="O156" s="28"/>
-      <c r="P156" s="29"/>
+      <c r="O156" s="27"/>
+      <c r="P156" s="28"/>
       <c r="Q156" s="23"/>
       <c r="R156" s="16"/>
-      <c r="S156" s="30"/>
+      <c r="S156" s="29"/>
       <c r="W156" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
